--- a/Application_examples/3_iRC1080_creinhardtii/Biomass_composition_iRC1080_Chang2011_onelevelBOF.xlsx
+++ b/Application_examples/3_iRC1080_creinhardtii/Biomass_composition_iRC1080_Chang2011_onelevelBOF.xlsx
@@ -1,38 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Local\WorkingDirectory\BioModTool_repository\Application_examples\iRC1080_creinhardtii\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clemencedupontthibert/Desktop/PhD/BioModTool_prepa_depot_juin2024/MOME-iMgadit_toolbox-main/BioModTool_repository/Application_examples/3_iRC1080_creinhardtii/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5886542C-1D26-4DAC-9904-360FECE1C9DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30778B13-0DD5-AB45-9E61-2611C4EE4614}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30495" yWindow="-16380" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Read_Me" sheetId="1" r:id="rId1"/>
     <sheet name="BIOMASS" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="389">
   <si>
     <t>g per …</t>
   </si>
@@ -1524,6 +1513,9 @@
   <si>
     <t>zaxan_u</t>
   </si>
+  <si>
+    <t>Chang et al. 2011</t>
+  </si>
 </sst>
 </file>
 
@@ -1533,7 +1525,7 @@
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.0000E+00"/>
   </numFmts>
-  <fonts count="30" x14ac:knownFonts="1">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1763,12 +1755,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="10">
@@ -2812,22 +2798,22 @@
       <selection activeCell="A3" sqref="A3:I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="21" customFormat="1" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:13" s="21" customFormat="1" ht="26">
       <c r="A1" s="21" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13">
       <c r="A2" s="88" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="351.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" ht="351.75" customHeight="1">
       <c r="A3" s="122" t="s">
         <v>39</v>
       </c>
@@ -2840,17 +2826,17 @@
       <c r="H3" s="122"/>
       <c r="I3" s="122"/>
     </row>
-    <row r="5" spans="1:13" s="22" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:13" s="22" customFormat="1" ht="21">
       <c r="A5" s="22" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="94" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" s="94" customFormat="1" ht="16">
       <c r="A6" s="94" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" ht="38.5" customHeight="1">
       <c r="A7" s="121" t="s">
         <v>31</v>
       </c>
@@ -2867,22 +2853,22 @@
       <c r="L7" s="121"/>
       <c r="M7" s="121"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13">
       <c r="A8" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13">
       <c r="A9" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="92" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" s="92" customFormat="1">
       <c r="A10" s="92" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13">
       <c r="B11" s="89" t="s">
         <v>35</v>
       </c>
@@ -2896,7 +2882,7 @@
       <c r="J11" s="89"/>
       <c r="K11" s="89"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13">
       <c r="B12" s="90" t="s">
         <v>36</v>
       </c>
@@ -2910,7 +2896,7 @@
       <c r="J12" s="90"/>
       <c r="K12" s="90"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13">
       <c r="B13" s="91" t="s">
         <v>37</v>
       </c>
@@ -2924,7 +2910,7 @@
       <c r="J13" s="91"/>
       <c r="K13" s="91"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13">
       <c r="B14" s="93" t="s">
         <v>38</v>
       </c>
@@ -2954,41 +2940,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A146" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A184" sqref="A183:C184"/>
+    <sheetView tabSelected="1" topLeftCell="A170" zoomScale="50" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E219" sqref="E219"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="28.44140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="28.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="32.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" style="108" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5" style="108" customWidth="1"/>
+    <col min="4" max="4" width="11.1640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="25.33203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.88671875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="20.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.83203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="20.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="33.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.5546875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="20.5" style="1" customWidth="1"/>
     <col min="11" max="11" width="26" style="24" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.44140625" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="11.44140625" style="1"/>
+    <col min="12" max="12" width="19.5" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="11.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="72" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" s="72" customFormat="1" ht="21" customHeight="1">
       <c r="A1" s="73" t="s">
         <v>22</v>
       </c>
       <c r="C1" s="107"/>
       <c r="K1" s="81"/>
     </row>
-    <row r="2" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" ht="17" thickBot="1">
       <c r="A2" s="36" t="s">
         <v>21</v>
       </c>
       <c r="B2" s="35"/>
     </row>
-    <row r="3" spans="1:12" s="26" customFormat="1" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" s="26" customFormat="1" ht="64.5" customHeight="1">
       <c r="A3" s="37" t="s">
         <v>15</v>
       </c>
@@ -3005,7 +2991,7 @@
       <c r="J3" s="39"/>
       <c r="K3" s="75"/>
     </row>
-    <row r="4" spans="1:12" s="26" customFormat="1" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" s="26" customFormat="1" ht="64.5" customHeight="1">
       <c r="A4" s="45"/>
       <c r="B4" s="62" t="s">
         <v>16</v>
@@ -3020,7 +3006,7 @@
       <c r="J4" s="48"/>
       <c r="K4" s="75"/>
     </row>
-    <row r="5" spans="1:12" s="2" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" s="2" customFormat="1" ht="42" customHeight="1">
       <c r="A5" s="49" t="s">
         <v>17</v>
       </c>
@@ -3045,7 +3031,7 @@
       <c r="J5" s="52"/>
       <c r="K5" s="25"/>
     </row>
-    <row r="6" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" ht="16.5" customHeight="1">
       <c r="A6" s="53"/>
       <c r="B6" s="74"/>
       <c r="C6" s="112"/>
@@ -3061,7 +3047,7 @@
       <c r="I6" s="54"/>
       <c r="J6" s="56"/>
     </row>
-    <row r="7" spans="1:12" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" ht="33" thickBot="1">
       <c r="A7" s="41" t="s">
         <v>18</v>
       </c>
@@ -3079,7 +3065,7 @@
       <c r="I7" s="43"/>
       <c r="J7" s="44"/>
     </row>
-    <row r="8" spans="1:12" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" s="2" customFormat="1" ht="16">
       <c r="A8" s="66"/>
       <c r="B8" s="67"/>
       <c r="C8" s="114"/>
@@ -3092,14 +3078,14 @@
       <c r="J8" s="40"/>
       <c r="K8" s="76"/>
     </row>
-    <row r="9" spans="1:12" s="72" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:12" s="72" customFormat="1" ht="21" customHeight="1">
       <c r="A9" s="73" t="s">
         <v>23</v>
       </c>
       <c r="C9" s="107"/>
       <c r="K9" s="81"/>
     </row>
-    <row r="10" spans="1:12" s="34" customFormat="1" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" s="34" customFormat="1" ht="65.25" customHeight="1" thickBot="1">
       <c r="A10" s="95" t="s">
         <v>40</v>
       </c>
@@ -3117,7 +3103,7 @@
       <c r="K10" s="124"/>
       <c r="L10" s="124"/>
     </row>
-    <row r="11" spans="1:12" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" ht="16.5" customHeight="1" thickBot="1">
       <c r="A11" s="3" t="s">
         <v>3</v>
       </c>
@@ -3150,7 +3136,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" ht="15.75" customHeight="1">
       <c r="A12" s="7" t="s">
         <v>53</v>
       </c>
@@ -3163,7 +3149,9 @@
       <c r="D12" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="E12" s="27"/>
+      <c r="E12" s="27" t="s">
+        <v>388</v>
+      </c>
       <c r="H12" s="8"/>
       <c r="I12" s="96" t="s">
         <v>45</v>
@@ -3174,9 +3162,11 @@
       <c r="K12" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="L12" s="9"/>
-    </row>
-    <row r="13" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L12" s="9" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="15.75" customHeight="1">
       <c r="A13" s="10" t="s">
         <v>55</v>
       </c>
@@ -3190,7 +3180,10 @@
         <f t="shared" ref="D13:D54" si="0">$D$12</f>
         <v>mol per …</v>
       </c>
-      <c r="E13" s="28"/>
+      <c r="E13" s="28" t="str">
+        <f>E12</f>
+        <v>Chang et al. 2011</v>
+      </c>
       <c r="H13" s="11"/>
       <c r="I13" s="97" t="s">
         <v>52</v>
@@ -3201,9 +3194,12 @@
       <c r="K13" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="L13" s="12"/>
-    </row>
-    <row r="14" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L13" s="12" t="str">
+        <f>L12</f>
+        <v>Chang et al. 2011</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="15.75" customHeight="1">
       <c r="A14" s="13" t="s">
         <v>57</v>
       </c>
@@ -3217,7 +3213,10 @@
         <f t="shared" si="0"/>
         <v>mol per …</v>
       </c>
-      <c r="E14" s="28"/>
+      <c r="E14" s="28" t="str">
+        <f t="shared" ref="E14:E77" si="1">E13</f>
+        <v>Chang et al. 2011</v>
+      </c>
       <c r="H14" s="11"/>
       <c r="I14" s="97" t="s">
         <v>51</v>
@@ -3228,9 +3227,12 @@
       <c r="K14" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="L14" s="12"/>
-    </row>
-    <row r="15" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L14" s="12" t="str">
+        <f t="shared" ref="L14:L15" si="2">L13</f>
+        <v>Chang et al. 2011</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="16.5" customHeight="1">
       <c r="A15" s="10" t="s">
         <v>59</v>
       </c>
@@ -3244,7 +3246,10 @@
         <f t="shared" si="0"/>
         <v>mol per …</v>
       </c>
-      <c r="E15" s="28"/>
+      <c r="E15" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v>Chang et al. 2011</v>
+      </c>
       <c r="H15" s="11"/>
       <c r="I15" s="97" t="s">
         <v>50</v>
@@ -3255,9 +3260,12 @@
       <c r="K15" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="L15" s="12"/>
-    </row>
-    <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L15" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v>Chang et al. 2011</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="15.75" customHeight="1">
       <c r="A16" s="10" t="s">
         <v>61</v>
       </c>
@@ -3271,7 +3279,10 @@
         <f t="shared" si="0"/>
         <v>mol per …</v>
       </c>
-      <c r="E16" s="28"/>
+      <c r="E16" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v>Chang et al. 2011</v>
+      </c>
       <c r="H16" s="15"/>
       <c r="I16" s="97"/>
       <c r="J16" s="101"/>
@@ -3280,7 +3291,7 @@
       </c>
       <c r="L16" s="16"/>
     </row>
-    <row r="17" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" ht="16">
       <c r="A17" s="10" t="s">
         <v>63</v>
       </c>
@@ -3294,7 +3305,10 @@
         <f t="shared" si="0"/>
         <v>mol per …</v>
       </c>
-      <c r="E17" s="29"/>
+      <c r="E17" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v>Chang et al. 2011</v>
+      </c>
       <c r="H17" s="15"/>
       <c r="I17" s="97"/>
       <c r="J17" s="101"/>
@@ -3303,7 +3317,7 @@
       </c>
       <c r="L17" s="16"/>
     </row>
-    <row r="18" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" ht="16">
       <c r="A18" s="10" t="s">
         <v>65</v>
       </c>
@@ -3317,7 +3331,10 @@
         <f t="shared" si="0"/>
         <v>mol per …</v>
       </c>
-      <c r="E18" s="29"/>
+      <c r="E18" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v>Chang et al. 2011</v>
+      </c>
       <c r="H18" s="15"/>
       <c r="I18" s="97"/>
       <c r="J18" s="101"/>
@@ -3326,7 +3343,7 @@
       </c>
       <c r="L18" s="16"/>
     </row>
-    <row r="19" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" ht="16">
       <c r="A19" s="10" t="s">
         <v>67</v>
       </c>
@@ -3340,7 +3357,10 @@
         <f t="shared" si="0"/>
         <v>mol per …</v>
       </c>
-      <c r="E19" s="29"/>
+      <c r="E19" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v>Chang et al. 2011</v>
+      </c>
       <c r="H19" s="15"/>
       <c r="I19" s="97"/>
       <c r="J19" s="101"/>
@@ -3349,7 +3369,7 @@
       </c>
       <c r="L19" s="16"/>
     </row>
-    <row r="20" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" ht="16">
       <c r="A20" s="10" t="s">
         <v>68</v>
       </c>
@@ -3363,7 +3383,10 @@
         <f t="shared" si="0"/>
         <v>mol per …</v>
       </c>
-      <c r="E20" s="29"/>
+      <c r="E20" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v>Chang et al. 2011</v>
+      </c>
       <c r="H20" s="15"/>
       <c r="I20" s="97"/>
       <c r="J20" s="101"/>
@@ -3372,7 +3395,7 @@
       </c>
       <c r="L20" s="16"/>
     </row>
-    <row r="21" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" ht="16">
       <c r="A21" s="10" t="s">
         <v>70</v>
       </c>
@@ -3386,7 +3409,10 @@
         <f t="shared" si="0"/>
         <v>mol per …</v>
       </c>
-      <c r="E21" s="29"/>
+      <c r="E21" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v>Chang et al. 2011</v>
+      </c>
       <c r="H21" s="15"/>
       <c r="I21" s="97"/>
       <c r="J21" s="14"/>
@@ -3395,7 +3421,7 @@
       </c>
       <c r="L21" s="16"/>
     </row>
-    <row r="22" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" ht="16">
       <c r="A22" s="10" t="s">
         <v>72</v>
       </c>
@@ -3409,7 +3435,10 @@
         <f t="shared" si="0"/>
         <v>mol per …</v>
       </c>
-      <c r="E22" s="29"/>
+      <c r="E22" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v>Chang et al. 2011</v>
+      </c>
       <c r="H22" s="15"/>
       <c r="I22" s="97"/>
       <c r="J22" s="14"/>
@@ -3418,7 +3447,7 @@
       </c>
       <c r="L22" s="16"/>
     </row>
-    <row r="23" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" ht="16">
       <c r="A23" s="10" t="s">
         <v>74</v>
       </c>
@@ -3432,7 +3461,10 @@
         <f t="shared" si="0"/>
         <v>mol per …</v>
       </c>
-      <c r="E23" s="29"/>
+      <c r="E23" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v>Chang et al. 2011</v>
+      </c>
       <c r="H23" s="15"/>
       <c r="I23" s="97"/>
       <c r="J23" s="14"/>
@@ -3441,7 +3473,7 @@
       </c>
       <c r="L23" s="16"/>
     </row>
-    <row r="24" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" ht="16">
       <c r="A24" s="10" t="s">
         <v>76</v>
       </c>
@@ -3455,7 +3487,10 @@
         <f t="shared" si="0"/>
         <v>mol per …</v>
       </c>
-      <c r="E24" s="29"/>
+      <c r="E24" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v>Chang et al. 2011</v>
+      </c>
       <c r="H24" s="15"/>
       <c r="I24" s="97"/>
       <c r="J24" s="14"/>
@@ -3464,7 +3499,7 @@
       </c>
       <c r="L24" s="16"/>
     </row>
-    <row r="25" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" ht="16">
       <c r="A25" s="10" t="s">
         <v>78</v>
       </c>
@@ -3478,7 +3513,10 @@
         <f t="shared" si="0"/>
         <v>mol per …</v>
       </c>
-      <c r="E25" s="29"/>
+      <c r="E25" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v>Chang et al. 2011</v>
+      </c>
       <c r="H25" s="15"/>
       <c r="I25" s="97"/>
       <c r="J25" s="14"/>
@@ -3487,7 +3525,7 @@
       </c>
       <c r="L25" s="16"/>
     </row>
-    <row r="26" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" ht="16">
       <c r="A26" s="10" t="s">
         <v>80</v>
       </c>
@@ -3501,7 +3539,10 @@
         <f t="shared" si="0"/>
         <v>mol per …</v>
       </c>
-      <c r="E26" s="29"/>
+      <c r="E26" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v>Chang et al. 2011</v>
+      </c>
       <c r="H26" s="15"/>
       <c r="I26" s="97"/>
       <c r="J26" s="14"/>
@@ -3510,7 +3551,7 @@
       </c>
       <c r="L26" s="16"/>
     </row>
-    <row r="27" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" ht="16">
       <c r="A27" s="10" t="s">
         <v>82</v>
       </c>
@@ -3524,7 +3565,10 @@
         <f t="shared" si="0"/>
         <v>mol per …</v>
       </c>
-      <c r="E27" s="29"/>
+      <c r="E27" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v>Chang et al. 2011</v>
+      </c>
       <c r="H27" s="15"/>
       <c r="I27" s="97"/>
       <c r="J27" s="14"/>
@@ -3533,7 +3577,7 @@
       </c>
       <c r="L27" s="16"/>
     </row>
-    <row r="28" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" ht="16">
       <c r="A28" s="10" t="s">
         <v>84</v>
       </c>
@@ -3547,7 +3591,10 @@
         <f t="shared" si="0"/>
         <v>mol per …</v>
       </c>
-      <c r="E28" s="29"/>
+      <c r="E28" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v>Chang et al. 2011</v>
+      </c>
       <c r="H28" s="15"/>
       <c r="I28" s="97"/>
       <c r="J28" s="14"/>
@@ -3556,7 +3603,7 @@
       </c>
       <c r="L28" s="16"/>
     </row>
-    <row r="29" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" ht="16">
       <c r="A29" s="10" t="s">
         <v>86</v>
       </c>
@@ -3570,7 +3617,10 @@
         <f t="shared" si="0"/>
         <v>mol per …</v>
       </c>
-      <c r="E29" s="29"/>
+      <c r="E29" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v>Chang et al. 2011</v>
+      </c>
       <c r="H29" s="15"/>
       <c r="I29" s="97"/>
       <c r="J29" s="14"/>
@@ -3579,7 +3629,7 @@
       </c>
       <c r="L29" s="16"/>
     </row>
-    <row r="30" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" ht="16">
       <c r="A30" s="10" t="s">
         <v>88</v>
       </c>
@@ -3593,7 +3643,10 @@
         <f t="shared" si="0"/>
         <v>mol per …</v>
       </c>
-      <c r="E30" s="29"/>
+      <c r="E30" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v>Chang et al. 2011</v>
+      </c>
       <c r="H30" s="15"/>
       <c r="I30" s="97"/>
       <c r="J30" s="14"/>
@@ -3602,7 +3655,7 @@
       </c>
       <c r="L30" s="16"/>
     </row>
-    <row r="31" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" ht="16">
       <c r="A31" s="10" t="s">
         <v>90</v>
       </c>
@@ -3616,7 +3669,10 @@
         <f t="shared" si="0"/>
         <v>mol per …</v>
       </c>
-      <c r="E31" s="29"/>
+      <c r="E31" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v>Chang et al. 2011</v>
+      </c>
       <c r="H31" s="15"/>
       <c r="I31" s="97"/>
       <c r="J31" s="14"/>
@@ -3625,7 +3681,7 @@
       </c>
       <c r="L31" s="16"/>
     </row>
-    <row r="32" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:12" ht="17" thickBot="1">
       <c r="A32" s="10" t="s">
         <v>92</v>
       </c>
@@ -3639,7 +3695,10 @@
         <f t="shared" si="0"/>
         <v>mol per …</v>
       </c>
-      <c r="E32" s="29"/>
+      <c r="E32" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v>Chang et al. 2011</v>
+      </c>
       <c r="H32" s="17"/>
       <c r="I32" s="98"/>
       <c r="J32" s="20"/>
@@ -3648,7 +3707,7 @@
       </c>
       <c r="L32" s="18"/>
     </row>
-    <row r="33" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" ht="16">
       <c r="A33" s="10" t="s">
         <v>93</v>
       </c>
@@ -3662,9 +3721,12 @@
         <f t="shared" si="0"/>
         <v>mol per …</v>
       </c>
-      <c r="E33" s="29"/>
-    </row>
-    <row r="34" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E33" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v>Chang et al. 2011</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="16">
       <c r="A34" s="10" t="s">
         <v>94</v>
       </c>
@@ -3678,9 +3740,12 @@
         <f t="shared" si="0"/>
         <v>mol per …</v>
       </c>
-      <c r="E34" s="29"/>
-    </row>
-    <row r="35" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E34" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v>Chang et al. 2011</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="16">
       <c r="A35" s="10" t="s">
         <v>95</v>
       </c>
@@ -3694,9 +3759,12 @@
         <f t="shared" si="0"/>
         <v>mol per …</v>
       </c>
-      <c r="E35" s="29"/>
-    </row>
-    <row r="36" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E35" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v>Chang et al. 2011</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="16">
       <c r="A36" s="10" t="s">
         <v>96</v>
       </c>
@@ -3710,9 +3778,12 @@
         <f t="shared" si="0"/>
         <v>mol per …</v>
       </c>
-      <c r="E36" s="29"/>
-    </row>
-    <row r="37" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E36" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v>Chang et al. 2011</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="16">
       <c r="A37" s="10" t="s">
         <v>97</v>
       </c>
@@ -3726,9 +3797,12 @@
         <f t="shared" si="0"/>
         <v>mol per …</v>
       </c>
-      <c r="E37" s="29"/>
-    </row>
-    <row r="38" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E37" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v>Chang et al. 2011</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="16">
       <c r="A38" s="10" t="s">
         <v>98</v>
       </c>
@@ -3742,9 +3816,12 @@
         <f t="shared" si="0"/>
         <v>mol per …</v>
       </c>
-      <c r="E38" s="29"/>
-    </row>
-    <row r="39" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E38" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v>Chang et al. 2011</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="16">
       <c r="A39" s="10" t="s">
         <v>99</v>
       </c>
@@ -3758,9 +3835,12 @@
         <f t="shared" si="0"/>
         <v>mol per …</v>
       </c>
-      <c r="E39" s="29"/>
-    </row>
-    <row r="40" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E39" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v>Chang et al. 2011</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="16">
       <c r="A40" s="10" t="s">
         <v>100</v>
       </c>
@@ -3774,9 +3854,12 @@
         <f t="shared" si="0"/>
         <v>mol per …</v>
       </c>
-      <c r="E40" s="29"/>
-    </row>
-    <row r="41" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E40" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v>Chang et al. 2011</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="16">
       <c r="A41" s="10" t="s">
         <v>102</v>
       </c>
@@ -3790,9 +3873,12 @@
         <f t="shared" si="0"/>
         <v>mol per …</v>
       </c>
-      <c r="E41" s="29"/>
-    </row>
-    <row r="42" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E41" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v>Chang et al. 2011</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="16">
       <c r="A42" s="10" t="s">
         <v>104</v>
       </c>
@@ -3806,9 +3892,12 @@
         <f t="shared" si="0"/>
         <v>mol per …</v>
       </c>
-      <c r="E42" s="29"/>
-    </row>
-    <row r="43" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E42" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v>Chang et al. 2011</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="16">
       <c r="A43" s="10" t="s">
         <v>106</v>
       </c>
@@ -3822,9 +3911,12 @@
         <f t="shared" si="0"/>
         <v>mol per …</v>
       </c>
-      <c r="E43" s="29"/>
-    </row>
-    <row r="44" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E43" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v>Chang et al. 2011</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="16">
       <c r="A44" s="10" t="s">
         <v>108</v>
       </c>
@@ -3838,9 +3930,12 @@
         <f t="shared" si="0"/>
         <v>mol per …</v>
       </c>
-      <c r="E44" s="29"/>
-    </row>
-    <row r="45" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E44" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v>Chang et al. 2011</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="16">
       <c r="A45" s="10" t="s">
         <v>110</v>
       </c>
@@ -3854,9 +3949,12 @@
         <f t="shared" si="0"/>
         <v>mol per …</v>
       </c>
-      <c r="E45" s="29"/>
-    </row>
-    <row r="46" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E45" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v>Chang et al. 2011</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="16">
       <c r="A46" s="10" t="s">
         <v>112</v>
       </c>
@@ -3870,9 +3968,12 @@
         <f t="shared" si="0"/>
         <v>mol per …</v>
       </c>
-      <c r="E46" s="29"/>
-    </row>
-    <row r="47" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E46" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v>Chang et al. 2011</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="16">
       <c r="A47" s="10" t="s">
         <v>114</v>
       </c>
@@ -3886,9 +3987,12 @@
         <f t="shared" si="0"/>
         <v>mol per …</v>
       </c>
-      <c r="E47" s="29"/>
-    </row>
-    <row r="48" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E47" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v>Chang et al. 2011</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="16">
       <c r="A48" s="10" t="s">
         <v>116</v>
       </c>
@@ -3902,9 +4006,12 @@
         <f t="shared" si="0"/>
         <v>mol per …</v>
       </c>
-      <c r="E48" s="29"/>
-    </row>
-    <row r="49" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E48" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v>Chang et al. 2011</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="16">
       <c r="A49" s="10" t="s">
         <v>118</v>
       </c>
@@ -3918,9 +4025,12 @@
         <f t="shared" si="0"/>
         <v>mol per …</v>
       </c>
-      <c r="E49" s="29"/>
-    </row>
-    <row r="50" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E49" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v>Chang et al. 2011</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="16">
       <c r="A50" s="10" t="s">
         <v>120</v>
       </c>
@@ -3934,9 +4044,12 @@
         <f t="shared" si="0"/>
         <v>mol per …</v>
       </c>
-      <c r="E50" s="29"/>
-    </row>
-    <row r="51" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E50" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v>Chang et al. 2011</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="16">
       <c r="A51" s="10" t="s">
         <v>122</v>
       </c>
@@ -3950,9 +4063,12 @@
         <f t="shared" si="0"/>
         <v>mol per …</v>
       </c>
-      <c r="E51" s="29"/>
-    </row>
-    <row r="52" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E51" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v>Chang et al. 2011</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="16">
       <c r="A52" s="10" t="s">
         <v>124</v>
       </c>
@@ -3966,9 +4082,12 @@
         <f t="shared" si="0"/>
         <v>mol per …</v>
       </c>
-      <c r="E52" s="29"/>
-    </row>
-    <row r="53" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E52" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v>Chang et al. 2011</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="16">
       <c r="A53" s="10" t="s">
         <v>126</v>
       </c>
@@ -3982,9 +4101,12 @@
         <f t="shared" si="0"/>
         <v>mol per …</v>
       </c>
-      <c r="E53" s="29"/>
-    </row>
-    <row r="54" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E53" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v>Chang et al. 2011</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="16">
       <c r="A54" s="10" t="s">
         <v>128</v>
       </c>
@@ -3998,9 +4120,12 @@
         <f t="shared" si="0"/>
         <v>mol per …</v>
       </c>
-      <c r="E54" s="29"/>
-    </row>
-    <row r="55" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E54" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v>Chang et al. 2011</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="16">
       <c r="A55" s="10" t="s">
         <v>130</v>
       </c>
@@ -4011,12 +4136,15 @@
         <v>2.0049266992888448E-4</v>
       </c>
       <c r="D55" s="31" t="str">
-        <f t="shared" ref="D55:D118" si="1">$D$12</f>
-        <v>mol per …</v>
-      </c>
-      <c r="E55" s="29"/>
-    </row>
-    <row r="56" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+        <f t="shared" ref="D55:D118" si="3">$D$12</f>
+        <v>mol per …</v>
+      </c>
+      <c r="E55" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v>Chang et al. 2011</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="16">
       <c r="A56" s="10" t="s">
         <v>132</v>
       </c>
@@ -4027,12 +4155,15 @@
         <v>2.694071064183792E-4</v>
       </c>
       <c r="D56" s="31" t="str">
+        <f t="shared" si="3"/>
+        <v>mol per …</v>
+      </c>
+      <c r="E56" s="28" t="str">
         <f t="shared" si="1"/>
-        <v>mol per …</v>
-      </c>
-      <c r="E56" s="29"/>
-    </row>
-    <row r="57" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+        <v>Chang et al. 2011</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="16">
       <c r="A57" s="10" t="s">
         <v>134</v>
       </c>
@@ -4043,12 +4174,15 @@
         <v>7.3922343752360654E-4</v>
       </c>
       <c r="D57" s="31" t="str">
+        <f t="shared" si="3"/>
+        <v>mol per …</v>
+      </c>
+      <c r="E57" s="28" t="str">
         <f t="shared" si="1"/>
-        <v>mol per …</v>
-      </c>
-      <c r="E57" s="29"/>
-    </row>
-    <row r="58" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+        <v>Chang et al. 2011</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="16">
       <c r="A58" s="10" t="s">
         <v>136</v>
       </c>
@@ -4059,12 +4193,15 @@
         <v>7.3922343752360654E-4</v>
       </c>
       <c r="D58" s="31" t="str">
+        <f t="shared" si="3"/>
+        <v>mol per …</v>
+      </c>
+      <c r="E58" s="28" t="str">
         <f t="shared" si="1"/>
-        <v>mol per …</v>
-      </c>
-      <c r="E58" s="29"/>
-    </row>
-    <row r="59" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+        <v>Chang et al. 2011</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="16">
       <c r="A59" s="10" t="s">
         <v>138</v>
       </c>
@@ -4075,12 +4212,15 @@
         <v>5.3643107345648252E-4</v>
       </c>
       <c r="D59" s="31" t="str">
+        <f t="shared" si="3"/>
+        <v>mol per …</v>
+      </c>
+      <c r="E59" s="28" t="str">
         <f t="shared" si="1"/>
-        <v>mol per …</v>
-      </c>
-      <c r="E59" s="29"/>
-    </row>
-    <row r="60" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+        <v>Chang et al. 2011</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="16">
       <c r="A60" s="10" t="s">
         <v>140</v>
       </c>
@@ -4091,12 +4231,15 @@
         <v>2.682125930894392E-4</v>
       </c>
       <c r="D60" s="31" t="str">
+        <f t="shared" si="3"/>
+        <v>mol per …</v>
+      </c>
+      <c r="E60" s="28" t="str">
         <f t="shared" si="1"/>
-        <v>mol per …</v>
-      </c>
-      <c r="E60" s="29"/>
-    </row>
-    <row r="61" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+        <v>Chang et al. 2011</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="16">
       <c r="A61" s="10" t="s">
         <v>142</v>
       </c>
@@ -4107,12 +4250,15 @@
         <v>2.682125930894392E-4</v>
       </c>
       <c r="D61" s="31" t="str">
+        <f t="shared" si="3"/>
+        <v>mol per …</v>
+      </c>
+      <c r="E61" s="28" t="str">
         <f t="shared" si="1"/>
-        <v>mol per …</v>
-      </c>
-      <c r="E61" s="29"/>
-    </row>
-    <row r="62" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+        <v>Chang et al. 2011</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="16">
       <c r="A62" s="10" t="s">
         <v>144</v>
       </c>
@@ -4123,12 +4269,15 @@
         <v>5.3524446099411803E-4</v>
       </c>
       <c r="D62" s="31" t="str">
+        <f t="shared" si="3"/>
+        <v>mol per …</v>
+      </c>
+      <c r="E62" s="28" t="str">
         <f t="shared" si="1"/>
-        <v>mol per …</v>
-      </c>
-      <c r="E62" s="29"/>
-    </row>
-    <row r="63" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+        <v>Chang et al. 2011</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="16">
       <c r="A63" s="10" t="s">
         <v>146</v>
       </c>
@@ -4139,12 +4288,15 @@
         <v>2.0071667287279427E-4</v>
       </c>
       <c r="D63" s="31" t="str">
+        <f t="shared" si="3"/>
+        <v>mol per …</v>
+      </c>
+      <c r="E63" s="28" t="str">
         <f t="shared" si="1"/>
-        <v>mol per …</v>
-      </c>
-      <c r="E63" s="29"/>
-    </row>
-    <row r="64" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+        <v>Chang et al. 2011</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="16">
       <c r="A64" s="10" t="s">
         <v>148</v>
       </c>
@@ -4155,12 +4307,15 @@
         <v>2.0071667287279427E-4</v>
       </c>
       <c r="D64" s="31" t="str">
+        <f t="shared" si="3"/>
+        <v>mol per …</v>
+      </c>
+      <c r="E64" s="28" t="str">
         <f t="shared" si="1"/>
-        <v>mol per …</v>
-      </c>
-      <c r="E64" s="29"/>
-    </row>
-    <row r="65" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+        <v>Chang et al. 2011</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="16">
       <c r="A65" s="10" t="s">
         <v>150</v>
       </c>
@@ -4171,12 +4326,15 @@
         <v>4.0055169163556915E-4</v>
       </c>
       <c r="D65" s="31" t="str">
+        <f t="shared" si="3"/>
+        <v>mol per …</v>
+      </c>
+      <c r="E65" s="28" t="str">
         <f t="shared" si="1"/>
-        <v>mol per …</v>
-      </c>
-      <c r="E65" s="29"/>
-    </row>
-    <row r="66" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+        <v>Chang et al. 2011</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="16">
       <c r="A66" s="10" t="s">
         <v>152</v>
       </c>
@@ -4187,12 +4345,15 @@
         <v>2.4032838898685963E-3</v>
       </c>
       <c r="D66" s="31" t="str">
+        <f t="shared" si="3"/>
+        <v>mol per …</v>
+      </c>
+      <c r="E66" s="28" t="str">
         <f t="shared" si="1"/>
-        <v>mol per …</v>
-      </c>
-      <c r="E66" s="29"/>
-    </row>
-    <row r="67" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+        <v>Chang et al. 2011</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="16">
       <c r="A67" s="10" t="s">
         <v>154</v>
       </c>
@@ -4203,12 +4364,15 @@
         <v>3.0041048623357454E-4</v>
       </c>
       <c r="D67" s="31" t="str">
+        <f t="shared" si="3"/>
+        <v>mol per …</v>
+      </c>
+      <c r="E67" s="28" t="str">
         <f t="shared" si="1"/>
-        <v>mol per …</v>
-      </c>
-      <c r="E67" s="29"/>
-    </row>
-    <row r="68" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+        <v>Chang et al. 2011</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="16">
       <c r="A68" s="10" t="s">
         <v>156</v>
       </c>
@@ -4219,12 +4383,15 @@
         <v>3.0041048623357454E-4</v>
       </c>
       <c r="D68" s="31" t="str">
+        <f t="shared" si="3"/>
+        <v>mol per …</v>
+      </c>
+      <c r="E68" s="28" t="str">
         <f t="shared" si="1"/>
-        <v>mol per …</v>
-      </c>
-      <c r="E68" s="29"/>
-    </row>
-    <row r="69" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+        <v>Chang et al. 2011</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="16">
       <c r="A69" s="10" t="s">
         <v>158</v>
       </c>
@@ -4235,12 +4402,15 @@
         <v>3.3305432236173486E-3</v>
       </c>
       <c r="D69" s="31" t="str">
+        <f t="shared" si="3"/>
+        <v>mol per …</v>
+      </c>
+      <c r="E69" s="28" t="str">
         <f t="shared" si="1"/>
-        <v>mol per …</v>
-      </c>
-      <c r="E69" s="29"/>
-    </row>
-    <row r="70" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+        <v>Chang et al. 2011</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="16">
       <c r="A70" s="10" t="s">
         <v>160</v>
       </c>
@@ -4251,12 +4421,15 @@
         <v>2.9975215817639085E-4</v>
       </c>
       <c r="D70" s="31" t="str">
+        <f t="shared" si="3"/>
+        <v>mol per …</v>
+      </c>
+      <c r="E70" s="28" t="str">
         <f t="shared" si="1"/>
-        <v>mol per …</v>
-      </c>
-      <c r="E70" s="29"/>
-    </row>
-    <row r="71" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+        <v>Chang et al. 2011</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="16">
       <c r="A71" s="10" t="s">
         <v>162</v>
       </c>
@@ -4267,12 +4440,15 @@
         <v>2.9975215817639085E-4</v>
       </c>
       <c r="D71" s="31" t="str">
+        <f t="shared" si="3"/>
+        <v>mol per …</v>
+      </c>
+      <c r="E71" s="28" t="str">
         <f t="shared" si="1"/>
-        <v>mol per …</v>
-      </c>
-      <c r="E71" s="29"/>
-    </row>
-    <row r="72" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+        <v>Chang et al. 2011</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="16">
       <c r="A72" s="10" t="s">
         <v>164</v>
       </c>
@@ -4283,12 +4459,15 @@
         <v>1.7280955200488217E-3</v>
       </c>
       <c r="D72" s="31" t="str">
+        <f t="shared" si="3"/>
+        <v>mol per …</v>
+      </c>
+      <c r="E72" s="28" t="str">
         <f t="shared" si="1"/>
-        <v>mol per …</v>
-      </c>
-      <c r="E72" s="29"/>
-    </row>
-    <row r="73" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+        <v>Chang et al. 2011</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="16">
       <c r="A73" s="10" t="s">
         <v>166</v>
       </c>
@@ -4299,12 +4478,15 @@
         <v>4.0676715936480216E-4</v>
       </c>
       <c r="D73" s="31" t="str">
+        <f t="shared" si="3"/>
+        <v>mol per …</v>
+      </c>
+      <c r="E73" s="28" t="str">
         <f t="shared" si="1"/>
-        <v>mol per …</v>
-      </c>
-      <c r="E73" s="29"/>
-    </row>
-    <row r="74" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+        <v>Chang et al. 2011</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="16">
       <c r="A74" s="10" t="s">
         <v>168</v>
       </c>
@@ -4315,12 +4497,15 @@
         <v>1.0818288487604063E-3</v>
       </c>
       <c r="D74" s="31" t="str">
+        <f t="shared" si="3"/>
+        <v>mol per …</v>
+      </c>
+      <c r="E74" s="28" t="str">
         <f t="shared" si="1"/>
-        <v>mol per …</v>
-      </c>
-      <c r="E74" s="29"/>
-    </row>
-    <row r="75" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+        <v>Chang et al. 2011</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="16">
       <c r="A75" s="10" t="s">
         <v>170</v>
       </c>
@@ -4331,12 +4516,15 @@
         <v>7.512600978727956E-5</v>
       </c>
       <c r="D75" s="31" t="str">
+        <f t="shared" si="3"/>
+        <v>mol per …</v>
+      </c>
+      <c r="E75" s="28" t="str">
         <f t="shared" si="1"/>
-        <v>mol per …</v>
-      </c>
-      <c r="E75" s="29"/>
-    </row>
-    <row r="76" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+        <v>Chang et al. 2011</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="16">
       <c r="A76" s="10" t="s">
         <v>172</v>
       </c>
@@ -4347,12 +4535,15 @@
         <v>1.618419496678118E-3</v>
       </c>
       <c r="D76" s="31" t="str">
+        <f t="shared" si="3"/>
+        <v>mol per …</v>
+      </c>
+      <c r="E76" s="28" t="str">
         <f t="shared" si="1"/>
-        <v>mol per …</v>
-      </c>
-      <c r="E76" s="29"/>
-    </row>
-    <row r="77" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+        <v>Chang et al. 2011</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="16">
       <c r="A77" s="10" t="s">
         <v>174</v>
       </c>
@@ -4363,12 +4554,15 @@
         <v>2.6973658277968635E-4</v>
       </c>
       <c r="D77" s="31" t="str">
+        <f t="shared" si="3"/>
+        <v>mol per …</v>
+      </c>
+      <c r="E77" s="28" t="str">
         <f t="shared" si="1"/>
-        <v>mol per …</v>
-      </c>
-      <c r="E77" s="29"/>
-    </row>
-    <row r="78" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+        <v>Chang et al. 2011</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="16">
       <c r="A78" s="10" t="s">
         <v>176</v>
       </c>
@@ -4379,12 +4573,15 @@
         <v>2.6973658277968635E-4</v>
       </c>
       <c r="D78" s="31" t="str">
-        <f t="shared" si="1"/>
-        <v>mol per …</v>
-      </c>
-      <c r="E78" s="29"/>
-    </row>
-    <row r="79" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>mol per …</v>
+      </c>
+      <c r="E78" s="28" t="str">
+        <f t="shared" ref="E78:E141" si="4">E77</f>
+        <v>Chang et al. 2011</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="16">
       <c r="A79" s="10" t="s">
         <v>178</v>
       </c>
@@ -4395,12 +4592,15 @@
         <v>2.0949544947028629E-3</v>
       </c>
       <c r="D79" s="31" t="str">
-        <f t="shared" si="1"/>
-        <v>mol per …</v>
-      </c>
-      <c r="E79" s="29"/>
-    </row>
-    <row r="80" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>mol per …</v>
+      </c>
+      <c r="E79" s="28" t="str">
+        <f t="shared" si="4"/>
+        <v>Chang et al. 2011</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="16">
       <c r="A80" s="10" t="s">
         <v>180</v>
       </c>
@@ -4411,12 +4611,15 @@
         <v>4.0352967506696621E-4</v>
       </c>
       <c r="D80" s="31" t="str">
-        <f t="shared" si="1"/>
-        <v>mol per …</v>
-      </c>
-      <c r="E80" s="29"/>
-    </row>
-    <row r="81" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>mol per …</v>
+      </c>
+      <c r="E80" s="28" t="str">
+        <f t="shared" si="4"/>
+        <v>Chang et al. 2011</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="16">
       <c r="A81" s="10" t="s">
         <v>182</v>
       </c>
@@ -4427,12 +4630,15 @@
         <v>3.3627915313324007E-4</v>
       </c>
       <c r="D81" s="31" t="str">
-        <f t="shared" si="1"/>
-        <v>mol per …</v>
-      </c>
-      <c r="E81" s="29"/>
-    </row>
-    <row r="82" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>mol per …</v>
+      </c>
+      <c r="E81" s="28" t="str">
+        <f t="shared" si="4"/>
+        <v>Chang et al. 2011</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="16">
       <c r="A82" s="10" t="s">
         <v>184</v>
       </c>
@@ -4443,12 +4649,15 @@
         <v>7.4530639979347843E-5</v>
       </c>
       <c r="D82" s="31" t="str">
-        <f t="shared" si="1"/>
-        <v>mol per …</v>
-      </c>
-      <c r="E82" s="29"/>
-    </row>
-    <row r="83" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>mol per …</v>
+      </c>
+      <c r="E82" s="28" t="str">
+        <f t="shared" si="4"/>
+        <v>Chang et al. 2011</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="16">
       <c r="A83" s="10" t="s">
         <v>186</v>
       </c>
@@ -4459,12 +4668,15 @@
         <v>3.3627915313324007E-4</v>
       </c>
       <c r="D83" s="31" t="str">
-        <f t="shared" si="1"/>
-        <v>mol per …</v>
-      </c>
-      <c r="E83" s="29"/>
-    </row>
-    <row r="84" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>mol per …</v>
+      </c>
+      <c r="E83" s="28" t="str">
+        <f t="shared" si="4"/>
+        <v>Chang et al. 2011</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="16">
       <c r="A84" s="10" t="s">
         <v>188</v>
       </c>
@@ -4475,12 +4687,15 @@
         <v>7.4530639979347843E-5</v>
       </c>
       <c r="D84" s="31" t="str">
-        <f t="shared" si="1"/>
-        <v>mol per …</v>
-      </c>
-      <c r="E84" s="29"/>
-    </row>
-    <row r="85" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>mol per …</v>
+      </c>
+      <c r="E84" s="28" t="str">
+        <f t="shared" si="4"/>
+        <v>Chang et al. 2011</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="16">
       <c r="A85" s="10" t="s">
         <v>190</v>
       </c>
@@ -4491,12 +4706,15 @@
         <v>4.0353498375988805E-4</v>
       </c>
       <c r="D85" s="31" t="str">
-        <f t="shared" si="1"/>
-        <v>mol per …</v>
-      </c>
-      <c r="E85" s="29"/>
-    </row>
-    <row r="86" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>mol per …</v>
+      </c>
+      <c r="E85" s="28" t="str">
+        <f t="shared" si="4"/>
+        <v>Chang et al. 2011</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="16">
       <c r="A86" s="10" t="s">
         <v>192</v>
       </c>
@@ -4507,12 +4725,15 @@
         <v>4.0353498375988805E-4</v>
       </c>
       <c r="D86" s="31" t="str">
-        <f t="shared" si="1"/>
-        <v>mol per …</v>
-      </c>
-      <c r="E86" s="29"/>
-    </row>
-    <row r="87" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>mol per …</v>
+      </c>
+      <c r="E86" s="28" t="str">
+        <f t="shared" si="4"/>
+        <v>Chang et al. 2011</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="16">
       <c r="A87" s="10" t="s">
         <v>194</v>
       </c>
@@ -4523,12 +4744,15 @@
         <v>3.8998743685017059E-3</v>
       </c>
       <c r="D87" s="31" t="str">
-        <f t="shared" si="1"/>
-        <v>mol per …</v>
-      </c>
-      <c r="E87" s="29"/>
-    </row>
-    <row r="88" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>mol per …</v>
+      </c>
+      <c r="E87" s="28" t="str">
+        <f t="shared" si="4"/>
+        <v>Chang et al. 2011</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="16">
       <c r="A88" s="10" t="s">
         <v>196</v>
       </c>
@@ -4539,12 +4763,15 @@
         <v>2.0123272794423915E-4</v>
       </c>
       <c r="D88" s="31" t="str">
-        <f t="shared" si="1"/>
-        <v>mol per …</v>
-      </c>
-      <c r="E88" s="29"/>
-    </row>
-    <row r="89" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>mol per …</v>
+      </c>
+      <c r="E88" s="28" t="str">
+        <f t="shared" si="4"/>
+        <v>Chang et al. 2011</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="16">
       <c r="A89" s="10" t="s">
         <v>198</v>
       </c>
@@ -4555,12 +4782,15 @@
         <v>2.0123272794423915E-4</v>
       </c>
       <c r="D89" s="31" t="str">
-        <f t="shared" si="1"/>
-        <v>mol per …</v>
-      </c>
-      <c r="E89" s="29"/>
-    </row>
-    <row r="90" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>mol per …</v>
+      </c>
+      <c r="E89" s="28" t="str">
+        <f t="shared" si="4"/>
+        <v>Chang et al. 2011</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="16">
       <c r="A90" s="10" t="s">
         <v>200</v>
       </c>
@@ -4571,12 +4801,15 @@
         <v>7.4334599115708701E-5</v>
       </c>
       <c r="D90" s="31" t="str">
-        <f t="shared" si="1"/>
-        <v>mol per …</v>
-      </c>
-      <c r="E90" s="29"/>
-    </row>
-    <row r="91" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>mol per …</v>
+      </c>
+      <c r="E90" s="28" t="str">
+        <f t="shared" si="4"/>
+        <v>Chang et al. 2011</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="16">
       <c r="A91" s="10" t="s">
         <v>202</v>
       </c>
@@ -4587,12 +4820,15 @@
         <v>7.4334599115708701E-5</v>
       </c>
       <c r="D91" s="31" t="str">
-        <f t="shared" si="1"/>
-        <v>mol per …</v>
-      </c>
-      <c r="E91" s="29"/>
-    </row>
-    <row r="92" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>mol per …</v>
+      </c>
+      <c r="E91" s="28" t="str">
+        <f t="shared" si="4"/>
+        <v>Chang et al. 2011</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" ht="16">
       <c r="A92" s="10" t="s">
         <v>204</v>
       </c>
@@ -4603,12 +4839,15 @@
         <v>7.4334599115708701E-5</v>
       </c>
       <c r="D92" s="31" t="str">
-        <f t="shared" si="1"/>
-        <v>mol per …</v>
-      </c>
-      <c r="E92" s="29"/>
-    </row>
-    <row r="93" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>mol per …</v>
+      </c>
+      <c r="E92" s="28" t="str">
+        <f t="shared" si="4"/>
+        <v>Chang et al. 2011</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" ht="16">
       <c r="A93" s="10" t="s">
         <v>206</v>
       </c>
@@ -4619,12 +4858,15 @@
         <v>7.4334599115708701E-5</v>
       </c>
       <c r="D93" s="31" t="str">
-        <f t="shared" si="1"/>
-        <v>mol per …</v>
-      </c>
-      <c r="E93" s="29"/>
-    </row>
-    <row r="94" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>mol per …</v>
+      </c>
+      <c r="E93" s="28" t="str">
+        <f t="shared" si="4"/>
+        <v>Chang et al. 2011</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" ht="16">
       <c r="A94" s="10" t="s">
         <v>208</v>
       </c>
@@ -4635,12 +4877,15 @@
         <v>1.1111921868007162E-3</v>
       </c>
       <c r="D94" s="31" t="str">
-        <f t="shared" si="1"/>
-        <v>mol per …</v>
-      </c>
-      <c r="E94" s="29"/>
-    </row>
-    <row r="95" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>mol per …</v>
+      </c>
+      <c r="E94" s="28" t="str">
+        <f t="shared" si="4"/>
+        <v>Chang et al. 2011</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" ht="16">
       <c r="A95" s="10" t="s">
         <v>210</v>
       </c>
@@ -4651,12 +4896,15 @@
         <v>7.6955993199382178E-5</v>
       </c>
       <c r="D95" s="31" t="str">
-        <f t="shared" si="1"/>
-        <v>mol per …</v>
-      </c>
-      <c r="E95" s="29"/>
-    </row>
-    <row r="96" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>mol per …</v>
+      </c>
+      <c r="E95" s="28" t="str">
+        <f t="shared" si="4"/>
+        <v>Chang et al. 2011</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="16">
       <c r="A96" s="10" t="s">
         <v>212</v>
       </c>
@@ -4667,12 +4915,15 @@
         <v>7.6955993199382178E-5</v>
       </c>
       <c r="D96" s="31" t="str">
-        <f t="shared" si="1"/>
-        <v>mol per …</v>
-      </c>
-      <c r="E96" s="29"/>
-    </row>
-    <row r="97" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>mol per …</v>
+      </c>
+      <c r="E96" s="28" t="str">
+        <f t="shared" si="4"/>
+        <v>Chang et al. 2011</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" ht="16">
       <c r="A97" s="10" t="s">
         <v>214</v>
       </c>
@@ -4683,12 +4934,15 @@
         <v>7.7696129896205786E-4</v>
       </c>
       <c r="D97" s="31" t="str">
-        <f t="shared" si="1"/>
-        <v>mol per …</v>
-      </c>
-      <c r="E97" s="29"/>
-    </row>
-    <row r="98" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>mol per …</v>
+      </c>
+      <c r="E97" s="28" t="str">
+        <f t="shared" si="4"/>
+        <v>Chang et al. 2011</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="16">
       <c r="A98" s="10" t="s">
         <v>216</v>
       </c>
@@ -4699,12 +4953,15 @@
         <v>7.2660276220152013E-4</v>
       </c>
       <c r="D98" s="31" t="str">
-        <f t="shared" si="1"/>
-        <v>mol per …</v>
-      </c>
-      <c r="E98" s="29"/>
-    </row>
-    <row r="99" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>mol per …</v>
+      </c>
+      <c r="E98" s="28" t="str">
+        <f t="shared" si="4"/>
+        <v>Chang et al. 2011</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" ht="16">
       <c r="A99" s="10" t="s">
         <v>218</v>
       </c>
@@ -4715,12 +4972,15 @@
         <v>4.8321466891012899E-4</v>
       </c>
       <c r="D99" s="31" t="str">
-        <f t="shared" si="1"/>
-        <v>mol per …</v>
-      </c>
-      <c r="E99" s="29"/>
-    </row>
-    <row r="100" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>mol per …</v>
+      </c>
+      <c r="E99" s="28" t="str">
+        <f t="shared" si="4"/>
+        <v>Chang et al. 2011</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="16">
       <c r="A100" s="10" t="s">
         <v>220</v>
       </c>
@@ -4731,12 +4991,15 @@
         <v>4.8321466891012899E-4</v>
       </c>
       <c r="D100" s="31" t="str">
-        <f t="shared" si="1"/>
-        <v>mol per …</v>
-      </c>
-      <c r="E100" s="29"/>
-    </row>
-    <row r="101" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>mol per …</v>
+      </c>
+      <c r="E100" s="28" t="str">
+        <f t="shared" si="4"/>
+        <v>Chang et al. 2011</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="16">
       <c r="A101" s="10" t="s">
         <v>222</v>
       </c>
@@ -4747,12 +5010,15 @@
         <v>2.4453640238049769E-3</v>
       </c>
       <c r="D101" s="31" t="str">
-        <f t="shared" si="1"/>
-        <v>mol per …</v>
-      </c>
-      <c r="E101" s="29"/>
-    </row>
-    <row r="102" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>mol per …</v>
+      </c>
+      <c r="E101" s="28" t="str">
+        <f t="shared" si="4"/>
+        <v>Chang et al. 2011</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" ht="16">
       <c r="A102" s="10" t="s">
         <v>224</v>
       </c>
@@ -4763,12 +5029,15 @@
         <v>1.1827935175796336E-3</v>
       </c>
       <c r="D102" s="31" t="str">
-        <f t="shared" si="1"/>
-        <v>mol per …</v>
-      </c>
-      <c r="E102" s="29"/>
-    </row>
-    <row r="103" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>mol per …</v>
+      </c>
+      <c r="E102" s="28" t="str">
+        <f t="shared" si="4"/>
+        <v>Chang et al. 2011</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" ht="16">
       <c r="A103" s="10" t="s">
         <v>226</v>
       </c>
@@ -4779,12 +5048,15 @@
         <v>1.1827935175796336E-3</v>
       </c>
       <c r="D103" s="31" t="str">
-        <f t="shared" si="1"/>
-        <v>mol per …</v>
-      </c>
-      <c r="E103" s="29"/>
-    </row>
-    <row r="104" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>mol per …</v>
+      </c>
+      <c r="E103" s="28" t="str">
+        <f t="shared" si="4"/>
+        <v>Chang et al. 2011</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" ht="16">
       <c r="A104" s="10" t="s">
         <v>228</v>
       </c>
@@ -4795,12 +5067,15 @@
         <v>1.1849977871733798E-3</v>
       </c>
       <c r="D104" s="31" t="str">
-        <f t="shared" si="1"/>
-        <v>mol per …</v>
-      </c>
-      <c r="E104" s="29"/>
-    </row>
-    <row r="105" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>mol per …</v>
+      </c>
+      <c r="E104" s="28" t="str">
+        <f t="shared" si="4"/>
+        <v>Chang et al. 2011</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" ht="16">
       <c r="A105" s="10" t="s">
         <v>230</v>
       </c>
@@ -4811,12 +5086,15 @@
         <v>1.1872213160393568E-3</v>
       </c>
       <c r="D105" s="31" t="str">
-        <f t="shared" si="1"/>
-        <v>mol per …</v>
-      </c>
-      <c r="E105" s="29"/>
-    </row>
-    <row r="106" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>mol per …</v>
+      </c>
+      <c r="E105" s="28" t="str">
+        <f t="shared" si="4"/>
+        <v>Chang et al. 2011</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" ht="16">
       <c r="A106" s="10" t="s">
         <v>232</v>
       </c>
@@ -4827,12 +5105,15 @@
         <v>1.1849977871733798E-3</v>
       </c>
       <c r="D106" s="31" t="str">
-        <f t="shared" si="1"/>
-        <v>mol per …</v>
-      </c>
-      <c r="E106" s="29"/>
-    </row>
-    <row r="107" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>mol per …</v>
+      </c>
+      <c r="E106" s="28" t="str">
+        <f t="shared" si="4"/>
+        <v>Chang et al. 2011</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" ht="16">
       <c r="A107" s="10" t="s">
         <v>234</v>
       </c>
@@ -4843,12 +5124,15 @@
         <v>1.1849977871733798E-3</v>
       </c>
       <c r="D107" s="31" t="str">
-        <f t="shared" si="1"/>
-        <v>mol per …</v>
-      </c>
-      <c r="E107" s="29"/>
-    </row>
-    <row r="108" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>mol per …</v>
+      </c>
+      <c r="E107" s="28" t="str">
+        <f t="shared" si="4"/>
+        <v>Chang et al. 2011</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" ht="16">
       <c r="A108" s="10" t="s">
         <v>236</v>
       </c>
@@ -4859,12 +5143,15 @@
         <v>1.1872102879185622E-3</v>
       </c>
       <c r="D108" s="31" t="str">
-        <f t="shared" si="1"/>
-        <v>mol per …</v>
-      </c>
-      <c r="E108" s="29"/>
-    </row>
-    <row r="109" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>mol per …</v>
+      </c>
+      <c r="E108" s="28" t="str">
+        <f t="shared" si="4"/>
+        <v>Chang et al. 2011</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" ht="16">
       <c r="A109" s="10" t="s">
         <v>238</v>
       </c>
@@ -4875,12 +5162,15 @@
         <v>1.1894421354240487E-3</v>
       </c>
       <c r="D109" s="31" t="str">
-        <f t="shared" si="1"/>
-        <v>mol per …</v>
-      </c>
-      <c r="E109" s="29"/>
-    </row>
-    <row r="110" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>mol per …</v>
+      </c>
+      <c r="E109" s="28" t="str">
+        <f t="shared" si="4"/>
+        <v>Chang et al. 2011</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" ht="16">
       <c r="A110" s="10" t="s">
         <v>240</v>
       </c>
@@ -4891,12 +5181,15 @@
         <v>1.2321814060965483E-3</v>
       </c>
       <c r="D110" s="31" t="str">
-        <f t="shared" si="1"/>
-        <v>mol per …</v>
-      </c>
-      <c r="E110" s="29"/>
-    </row>
-    <row r="111" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>mol per …</v>
+      </c>
+      <c r="E110" s="28" t="str">
+        <f t="shared" si="4"/>
+        <v>Chang et al. 2011</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" ht="16">
       <c r="A111" s="10" t="s">
         <v>242</v>
       </c>
@@ -4907,12 +5200,15 @@
         <v>7.3730422089733291E-4</v>
       </c>
       <c r="D111" s="31" t="str">
-        <f t="shared" si="1"/>
-        <v>mol per …</v>
-      </c>
-      <c r="E111" s="29"/>
-    </row>
-    <row r="112" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>mol per …</v>
+      </c>
+      <c r="E111" s="28" t="str">
+        <f t="shared" si="4"/>
+        <v>Chang et al. 2011</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" ht="16">
       <c r="A112" s="10" t="s">
         <v>244</v>
       </c>
@@ -4923,12 +5219,15 @@
         <v>3.3588303396434051E-3</v>
       </c>
       <c r="D112" s="31" t="str">
-        <f t="shared" si="1"/>
-        <v>mol per …</v>
-      </c>
-      <c r="E112" s="29"/>
-    </row>
-    <row r="113" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>mol per …</v>
+      </c>
+      <c r="E112" s="28" t="str">
+        <f t="shared" si="4"/>
+        <v>Chang et al. 2011</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" ht="16">
       <c r="A113" s="10" t="s">
         <v>246</v>
       </c>
@@ -4939,12 +5238,15 @@
         <v>7.3531043973774446E-4</v>
       </c>
       <c r="D113" s="31" t="str">
-        <f t="shared" si="1"/>
-        <v>mol per …</v>
-      </c>
-      <c r="E113" s="29"/>
-    </row>
-    <row r="114" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>mol per …</v>
+      </c>
+      <c r="E113" s="28" t="str">
+        <f t="shared" si="4"/>
+        <v>Chang et al. 2011</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" ht="16">
       <c r="A114" s="10" t="s">
         <v>248</v>
       </c>
@@ -4955,12 +5257,15 @@
         <v>4.4936239540058139E-4</v>
       </c>
       <c r="D114" s="31" t="str">
-        <f t="shared" si="1"/>
-        <v>mol per …</v>
-      </c>
-      <c r="E114" s="29"/>
-    </row>
-    <row r="115" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>mol per …</v>
+      </c>
+      <c r="E114" s="28" t="str">
+        <f t="shared" si="4"/>
+        <v>Chang et al. 2011</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" ht="16">
       <c r="A115" s="10" t="s">
         <v>250</v>
       </c>
@@ -4971,12 +5276,15 @@
         <v>4.4936239540058139E-4</v>
       </c>
       <c r="D115" s="31" t="str">
-        <f t="shared" si="1"/>
-        <v>mol per …</v>
-      </c>
-      <c r="E115" s="29"/>
-    </row>
-    <row r="116" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>mol per …</v>
+      </c>
+      <c r="E115" s="28" t="str">
+        <f t="shared" si="4"/>
+        <v>Chang et al. 2011</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" ht="16">
       <c r="A116" s="10" t="s">
         <v>252</v>
       </c>
@@ -4987,12 +5295,15 @@
         <v>6.1111433590572333E-4</v>
       </c>
       <c r="D116" s="31" t="str">
-        <f t="shared" si="1"/>
-        <v>mol per …</v>
-      </c>
-      <c r="E116" s="29"/>
-    </row>
-    <row r="117" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>mol per …</v>
+      </c>
+      <c r="E116" s="28" t="str">
+        <f t="shared" si="4"/>
+        <v>Chang et al. 2011</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" ht="16">
       <c r="A117" s="10" t="s">
         <v>254</v>
       </c>
@@ -5003,12 +5314,15 @@
         <v>6.1111433590572333E-4</v>
       </c>
       <c r="D117" s="31" t="str">
-        <f t="shared" si="1"/>
-        <v>mol per …</v>
-      </c>
-      <c r="E117" s="29"/>
-    </row>
-    <row r="118" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>mol per …</v>
+      </c>
+      <c r="E117" s="28" t="str">
+        <f t="shared" si="4"/>
+        <v>Chang et al. 2011</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" ht="16">
       <c r="A118" s="10" t="s">
         <v>256</v>
       </c>
@@ -5019,12 +5333,15 @@
         <v>1.9654351190794293E-4</v>
       </c>
       <c r="D118" s="31" t="str">
-        <f t="shared" si="1"/>
-        <v>mol per …</v>
-      </c>
-      <c r="E118" s="29"/>
-    </row>
-    <row r="119" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>mol per …</v>
+      </c>
+      <c r="E118" s="28" t="str">
+        <f t="shared" si="4"/>
+        <v>Chang et al. 2011</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" ht="16">
       <c r="A119" s="10" t="s">
         <v>258</v>
       </c>
@@ -5035,12 +5352,15 @@
         <v>3.8537943511361366E-6</v>
       </c>
       <c r="D119" s="31" t="str">
-        <f t="shared" ref="D119:D182" si="2">$D$12</f>
-        <v>mol per …</v>
-      </c>
-      <c r="E119" s="29"/>
-    </row>
-    <row r="120" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+        <f t="shared" ref="D119:D182" si="5">$D$12</f>
+        <v>mol per …</v>
+      </c>
+      <c r="E119" s="28" t="str">
+        <f t="shared" si="4"/>
+        <v>Chang et al. 2011</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" ht="16">
       <c r="A120" s="10" t="s">
         <v>260</v>
       </c>
@@ -5051,12 +5371,15 @@
         <v>9.4161502004427633E-5</v>
       </c>
       <c r="D120" s="31" t="str">
-        <f t="shared" si="2"/>
-        <v>mol per …</v>
-      </c>
-      <c r="E120" s="29"/>
-    </row>
-    <row r="121" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>mol per …</v>
+      </c>
+      <c r="E120" s="28" t="str">
+        <f t="shared" si="4"/>
+        <v>Chang et al. 2011</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" ht="16">
       <c r="A121" s="10" t="s">
         <v>262</v>
       </c>
@@ -5067,12 +5390,15 @@
         <v>1.2717521358749249E-4</v>
       </c>
       <c r="D121" s="31" t="str">
-        <f t="shared" si="2"/>
-        <v>mol per …</v>
-      </c>
-      <c r="E121" s="29"/>
-    </row>
-    <row r="122" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>mol per …</v>
+      </c>
+      <c r="E121" s="28" t="str">
+        <f t="shared" si="4"/>
+        <v>Chang et al. 2011</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" ht="16">
       <c r="A122" s="10" t="s">
         <v>264</v>
       </c>
@@ -5083,12 +5409,15 @@
         <v>3.1073295661461116E-3</v>
       </c>
       <c r="D122" s="31" t="str">
-        <f t="shared" si="2"/>
-        <v>mol per …</v>
-      </c>
-      <c r="E122" s="29"/>
-    </row>
-    <row r="123" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>mol per …</v>
+      </c>
+      <c r="E122" s="28" t="str">
+        <f t="shared" si="4"/>
+        <v>Chang et al. 2011</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" ht="16">
       <c r="A123" s="10" t="s">
         <v>266</v>
       </c>
@@ -5099,12 +5428,15 @@
         <v>6.5335669496782841E-4</v>
       </c>
       <c r="D123" s="31" t="str">
-        <f t="shared" si="2"/>
-        <v>mol per …</v>
-      </c>
-      <c r="E123" s="29"/>
-    </row>
-    <row r="124" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>mol per …</v>
+      </c>
+      <c r="E123" s="28" t="str">
+        <f t="shared" si="4"/>
+        <v>Chang et al. 2011</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" ht="16">
       <c r="A124" s="10" t="s">
         <v>268</v>
       </c>
@@ -5115,12 +5447,15 @@
         <v>2.345712725041527E-3</v>
       </c>
       <c r="D124" s="31" t="str">
-        <f t="shared" si="2"/>
-        <v>mol per …</v>
-      </c>
-      <c r="E124" s="29"/>
-    </row>
-    <row r="125" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>mol per …</v>
+      </c>
+      <c r="E124" s="28" t="str">
+        <f t="shared" si="4"/>
+        <v>Chang et al. 2011</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" ht="16">
       <c r="A125" s="10" t="s">
         <v>270</v>
       </c>
@@ -5131,12 +5466,15 @@
         <v>1.919444193488076E-3</v>
       </c>
       <c r="D125" s="31" t="str">
-        <f t="shared" si="2"/>
-        <v>mol per …</v>
-      </c>
-      <c r="E125" s="29"/>
-    </row>
-    <row r="126" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>mol per …</v>
+      </c>
+      <c r="E125" s="28" t="str">
+        <f t="shared" si="4"/>
+        <v>Chang et al. 2011</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" ht="16">
       <c r="A126" s="10" t="s">
         <v>272</v>
       </c>
@@ -5147,12 +5485,15 @@
         <v>2.5838671835416417E-4</v>
       </c>
       <c r="D126" s="31" t="str">
-        <f t="shared" si="2"/>
-        <v>mol per …</v>
-      </c>
-      <c r="E126" s="29"/>
-    </row>
-    <row r="127" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>mol per …</v>
+      </c>
+      <c r="E126" s="28" t="str">
+        <f t="shared" si="4"/>
+        <v>Chang et al. 2011</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" ht="16">
       <c r="A127" s="10" t="s">
         <v>274</v>
       </c>
@@ -5163,12 +5504,15 @@
         <v>1.3286262250593512E-3</v>
       </c>
       <c r="D127" s="31" t="str">
-        <f t="shared" si="2"/>
-        <v>mol per …</v>
-      </c>
-      <c r="E127" s="29"/>
-    </row>
-    <row r="128" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>mol per …</v>
+      </c>
+      <c r="E127" s="28" t="str">
+        <f t="shared" si="4"/>
+        <v>Chang et al. 2011</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" ht="16">
       <c r="A128" s="10" t="s">
         <v>276</v>
       </c>
@@ -5179,12 +5523,15 @@
         <v>1.3286262250593512E-3</v>
       </c>
       <c r="D128" s="31" t="str">
-        <f t="shared" si="2"/>
-        <v>mol per …</v>
-      </c>
-      <c r="E128" s="29"/>
-    </row>
-    <row r="129" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>mol per …</v>
+      </c>
+      <c r="E128" s="28" t="str">
+        <f t="shared" si="4"/>
+        <v>Chang et al. 2011</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" ht="16">
       <c r="A129" s="10" t="s">
         <v>278</v>
       </c>
@@ -5195,12 +5542,15 @@
         <v>1.2853623140147673E-3</v>
       </c>
       <c r="D129" s="31" t="str">
-        <f t="shared" si="2"/>
-        <v>mol per …</v>
-      </c>
-      <c r="E129" s="29"/>
-    </row>
-    <row r="130" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>mol per …</v>
+      </c>
+      <c r="E129" s="28" t="str">
+        <f t="shared" si="4"/>
+        <v>Chang et al. 2011</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" ht="16">
       <c r="A130" s="10" t="s">
         <v>280</v>
       </c>
@@ -5211,12 +5561,15 @@
         <v>1.2883835638248765E-3</v>
       </c>
       <c r="D130" s="31" t="str">
-        <f t="shared" si="2"/>
-        <v>mol per …</v>
-      </c>
-      <c r="E130" s="29"/>
-    </row>
-    <row r="131" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>mol per …</v>
+      </c>
+      <c r="E130" s="28" t="str">
+        <f t="shared" si="4"/>
+        <v>Chang et al. 2011</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" ht="16">
       <c r="A131" s="10" t="s">
         <v>282</v>
       </c>
@@ -5227,12 +5580,15 @@
         <v>1.2883835638248765E-3</v>
       </c>
       <c r="D131" s="31" t="str">
-        <f t="shared" si="2"/>
-        <v>mol per …</v>
-      </c>
-      <c r="E131" s="29"/>
-    </row>
-    <row r="132" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>mol per …</v>
+      </c>
+      <c r="E131" s="28" t="str">
+        <f t="shared" si="4"/>
+        <v>Chang et al. 2011</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" ht="16">
       <c r="A132" s="10" t="s">
         <v>284</v>
       </c>
@@ -5243,12 +5599,15 @@
         <v>1.2883835638248765E-3</v>
       </c>
       <c r="D132" s="31" t="str">
-        <f t="shared" si="2"/>
-        <v>mol per …</v>
-      </c>
-      <c r="E132" s="29"/>
-    </row>
-    <row r="133" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>mol per …</v>
+      </c>
+      <c r="E132" s="28" t="str">
+        <f t="shared" si="4"/>
+        <v>Chang et al. 2011</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" ht="16">
       <c r="A133" s="10" t="s">
         <v>286</v>
       </c>
@@ -5259,12 +5618,15 @@
         <v>1.2883835638248765E-3</v>
       </c>
       <c r="D133" s="31" t="str">
-        <f t="shared" si="2"/>
-        <v>mol per …</v>
-      </c>
-      <c r="E133" s="29"/>
-    </row>
-    <row r="134" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>mol per …</v>
+      </c>
+      <c r="E133" s="28" t="str">
+        <f t="shared" si="4"/>
+        <v>Chang et al. 2011</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" ht="16">
       <c r="A134" s="10" t="s">
         <v>288</v>
       </c>
@@ -5275,12 +5637,15 @@
         <v>1.2853623140147673E-3</v>
       </c>
       <c r="D134" s="31" t="str">
-        <f t="shared" si="2"/>
-        <v>mol per …</v>
-      </c>
-      <c r="E134" s="29"/>
-    </row>
-    <row r="135" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>mol per …</v>
+      </c>
+      <c r="E134" s="28" t="str">
+        <f t="shared" si="4"/>
+        <v>Chang et al. 2011</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" ht="16">
       <c r="A135" s="10" t="s">
         <v>290</v>
       </c>
@@ -5291,12 +5656,15 @@
         <v>1.2853623140147673E-3</v>
       </c>
       <c r="D135" s="31" t="str">
-        <f t="shared" si="2"/>
-        <v>mol per …</v>
-      </c>
-      <c r="E135" s="29"/>
-    </row>
-    <row r="136" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>mol per …</v>
+      </c>
+      <c r="E135" s="28" t="str">
+        <f t="shared" si="4"/>
+        <v>Chang et al. 2011</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" ht="16">
       <c r="A136" s="10" t="s">
         <v>292</v>
       </c>
@@ -5307,12 +5675,15 @@
         <v>1.2448271433402971E-3</v>
       </c>
       <c r="D136" s="31" t="str">
-        <f t="shared" si="2"/>
-        <v>mol per …</v>
-      </c>
-      <c r="E136" s="29"/>
-    </row>
-    <row r="137" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>mol per …</v>
+      </c>
+      <c r="E136" s="28" t="str">
+        <f t="shared" si="4"/>
+        <v>Chang et al. 2011</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" ht="16">
       <c r="A137" s="10" t="s">
         <v>294</v>
       </c>
@@ -5323,12 +5694,15 @@
         <v>1.2476606316094167E-3</v>
       </c>
       <c r="D137" s="31" t="str">
-        <f t="shared" si="2"/>
-        <v>mol per …</v>
-      </c>
-      <c r="E137" s="29"/>
-    </row>
-    <row r="138" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>mol per …</v>
+      </c>
+      <c r="E137" s="28" t="str">
+        <f t="shared" si="4"/>
+        <v>Chang et al. 2011</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" ht="16">
       <c r="A138" s="10" t="s">
         <v>296</v>
       </c>
@@ -5339,12 +5713,15 @@
         <v>1.2476606316094167E-3</v>
       </c>
       <c r="D138" s="31" t="str">
-        <f t="shared" si="2"/>
-        <v>mol per …</v>
-      </c>
-      <c r="E138" s="29"/>
-    </row>
-    <row r="139" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>mol per …</v>
+      </c>
+      <c r="E138" s="28" t="str">
+        <f t="shared" si="4"/>
+        <v>Chang et al. 2011</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" ht="16">
       <c r="A139" s="10" t="s">
         <v>298</v>
       </c>
@@ -5355,12 +5732,15 @@
         <v>1.2476606316094167E-3</v>
       </c>
       <c r="D139" s="31" t="str">
-        <f t="shared" si="2"/>
-        <v>mol per …</v>
-      </c>
-      <c r="E139" s="29"/>
-    </row>
-    <row r="140" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>mol per …</v>
+      </c>
+      <c r="E139" s="28" t="str">
+        <f t="shared" si="4"/>
+        <v>Chang et al. 2011</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" ht="16">
       <c r="A140" s="10" t="s">
         <v>300</v>
       </c>
@@ -5371,12 +5751,15 @@
         <v>1.2476606316094167E-3</v>
       </c>
       <c r="D140" s="31" t="str">
-        <f t="shared" si="2"/>
-        <v>mol per …</v>
-      </c>
-      <c r="E140" s="29"/>
-    </row>
-    <row r="141" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>mol per …</v>
+      </c>
+      <c r="E140" s="28" t="str">
+        <f t="shared" si="4"/>
+        <v>Chang et al. 2011</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" ht="16">
       <c r="A141" s="10" t="s">
         <v>302</v>
       </c>
@@ -5387,12 +5770,15 @@
         <v>1.2883835638248765E-3</v>
       </c>
       <c r="D141" s="31" t="str">
-        <f t="shared" si="2"/>
-        <v>mol per …</v>
-      </c>
-      <c r="E141" s="29"/>
-    </row>
-    <row r="142" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>mol per …</v>
+      </c>
+      <c r="E141" s="28" t="str">
+        <f t="shared" si="4"/>
+        <v>Chang et al. 2011</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" ht="16">
       <c r="A142" s="10" t="s">
         <v>304</v>
       </c>
@@ -5403,12 +5789,15 @@
         <v>1.2883835638248765E-3</v>
       </c>
       <c r="D142" s="31" t="str">
-        <f t="shared" si="2"/>
-        <v>mol per …</v>
-      </c>
-      <c r="E142" s="29"/>
-    </row>
-    <row r="143" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>mol per …</v>
+      </c>
+      <c r="E142" s="28" t="str">
+        <f t="shared" ref="E142:E183" si="6">E141</f>
+        <v>Chang et al. 2011</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" ht="16">
       <c r="A143" s="10" t="s">
         <v>306</v>
       </c>
@@ -5419,12 +5808,15 @@
         <v>1.2476606316094167E-3</v>
       </c>
       <c r="D143" s="31" t="str">
-        <f t="shared" si="2"/>
-        <v>mol per …</v>
-      </c>
-      <c r="E143" s="29"/>
-    </row>
-    <row r="144" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>mol per …</v>
+      </c>
+      <c r="E143" s="28" t="str">
+        <f t="shared" si="6"/>
+        <v>Chang et al. 2011</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" ht="16">
       <c r="A144" s="10" t="s">
         <v>308</v>
       </c>
@@ -5435,12 +5827,15 @@
         <v>1.2505070485368083E-3</v>
       </c>
       <c r="D144" s="31" t="str">
-        <f t="shared" si="2"/>
-        <v>mol per …</v>
-      </c>
-      <c r="E144" s="29"/>
-    </row>
-    <row r="145" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>mol per …</v>
+      </c>
+      <c r="E144" s="28" t="str">
+        <f t="shared" si="6"/>
+        <v>Chang et al. 2011</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" ht="16">
       <c r="A145" s="10" t="s">
         <v>310</v>
       </c>
@@ -5451,12 +5846,15 @@
         <v>1.2505070485368083E-3</v>
       </c>
       <c r="D145" s="31" t="str">
-        <f t="shared" si="2"/>
-        <v>mol per …</v>
-      </c>
-      <c r="E145" s="29"/>
-    </row>
-    <row r="146" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>mol per …</v>
+      </c>
+      <c r="E145" s="28" t="str">
+        <f t="shared" si="6"/>
+        <v>Chang et al. 2011</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" ht="16">
       <c r="A146" s="10" t="s">
         <v>312</v>
       </c>
@@ -5467,12 +5865,15 @@
         <v>1.2505070485368083E-3</v>
       </c>
       <c r="D146" s="31" t="str">
-        <f t="shared" si="2"/>
-        <v>mol per …</v>
-      </c>
-      <c r="E146" s="29"/>
-    </row>
-    <row r="147" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>mol per …</v>
+      </c>
+      <c r="E146" s="28" t="str">
+        <f t="shared" si="6"/>
+        <v>Chang et al. 2011</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" ht="16">
       <c r="A147" s="10" t="s">
         <v>314</v>
       </c>
@@ -5483,12 +5884,15 @@
         <v>1.2505070485368083E-3</v>
       </c>
       <c r="D147" s="31" t="str">
-        <f t="shared" si="2"/>
-        <v>mol per …</v>
-      </c>
-      <c r="E147" s="29"/>
-    </row>
-    <row r="148" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>mol per …</v>
+      </c>
+      <c r="E147" s="28" t="str">
+        <f t="shared" si="6"/>
+        <v>Chang et al. 2011</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" ht="16">
       <c r="A148" s="10" t="s">
         <v>316</v>
       </c>
@@ -5499,12 +5903,15 @@
         <v>1.2883835638248765E-3</v>
       </c>
       <c r="D148" s="31" t="str">
-        <f t="shared" si="2"/>
-        <v>mol per …</v>
-      </c>
-      <c r="E148" s="29"/>
-    </row>
-    <row r="149" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>mol per …</v>
+      </c>
+      <c r="E148" s="28" t="str">
+        <f t="shared" si="6"/>
+        <v>Chang et al. 2011</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" ht="16">
       <c r="A149" s="10" t="s">
         <v>318</v>
       </c>
@@ -5515,12 +5922,15 @@
         <v>1.2883835638248765E-3</v>
       </c>
       <c r="D149" s="31" t="str">
-        <f t="shared" si="2"/>
-        <v>mol per …</v>
-      </c>
-      <c r="E149" s="29"/>
-    </row>
-    <row r="150" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>mol per …</v>
+      </c>
+      <c r="E149" s="28" t="str">
+        <f t="shared" si="6"/>
+        <v>Chang et al. 2011</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" ht="16">
       <c r="A150" s="10" t="s">
         <v>320</v>
       </c>
@@ -5531,12 +5941,15 @@
         <v>1.2476606316094167E-3</v>
       </c>
       <c r="D150" s="31" t="str">
-        <f t="shared" si="2"/>
-        <v>mol per …</v>
-      </c>
-      <c r="E150" s="29"/>
-    </row>
-    <row r="151" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>mol per …</v>
+      </c>
+      <c r="E150" s="28" t="str">
+        <f t="shared" si="6"/>
+        <v>Chang et al. 2011</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" ht="16">
       <c r="A151" s="10" t="s">
         <v>322</v>
       </c>
@@ -5547,12 +5960,15 @@
         <v>1.2505070485368083E-3</v>
       </c>
       <c r="D151" s="31" t="str">
-        <f t="shared" si="2"/>
-        <v>mol per …</v>
-      </c>
-      <c r="E151" s="29"/>
-    </row>
-    <row r="152" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>mol per …</v>
+      </c>
+      <c r="E151" s="28" t="str">
+        <f t="shared" si="6"/>
+        <v>Chang et al. 2011</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" ht="16">
       <c r="A152" s="10" t="s">
         <v>324</v>
       </c>
@@ -5563,12 +5979,15 @@
         <v>1.2505070485368083E-3</v>
       </c>
       <c r="D152" s="31" t="str">
-        <f t="shared" si="2"/>
-        <v>mol per …</v>
-      </c>
-      <c r="E152" s="29"/>
-    </row>
-    <row r="153" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>mol per …</v>
+      </c>
+      <c r="E152" s="28" t="str">
+        <f t="shared" si="6"/>
+        <v>Chang et al. 2011</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" ht="16">
       <c r="A153" s="10" t="s">
         <v>326</v>
       </c>
@@ -5579,12 +5998,15 @@
         <v>1.2505070485368083E-3</v>
       </c>
       <c r="D153" s="31" t="str">
-        <f t="shared" si="2"/>
-        <v>mol per …</v>
-      </c>
-      <c r="E153" s="29"/>
-    </row>
-    <row r="154" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>mol per …</v>
+      </c>
+      <c r="E153" s="28" t="str">
+        <f t="shared" si="6"/>
+        <v>Chang et al. 2011</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" ht="16">
       <c r="A154" s="10" t="s">
         <v>328</v>
       </c>
@@ -5595,12 +6017,15 @@
         <v>1.2505070485368083E-3</v>
       </c>
       <c r="D154" s="31" t="str">
-        <f t="shared" si="2"/>
-        <v>mol per …</v>
-      </c>
-      <c r="E154" s="29"/>
-    </row>
-    <row r="155" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>mol per …</v>
+      </c>
+      <c r="E154" s="28" t="str">
+        <f t="shared" si="6"/>
+        <v>Chang et al. 2011</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" ht="16">
       <c r="A155" s="10" t="s">
         <v>330</v>
       </c>
@@ -5611,12 +6036,15 @@
         <v>1.2944537398469191E-3</v>
       </c>
       <c r="D155" s="31" t="str">
-        <f t="shared" si="2"/>
-        <v>mol per …</v>
-      </c>
-      <c r="E155" s="29"/>
-    </row>
-    <row r="156" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>mol per …</v>
+      </c>
+      <c r="E155" s="28" t="str">
+        <f t="shared" si="6"/>
+        <v>Chang et al. 2011</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" ht="16">
       <c r="A156" s="10" t="s">
         <v>332</v>
       </c>
@@ -5627,12 +6055,15 @@
         <v>1.2944537398469191E-3</v>
       </c>
       <c r="D156" s="31" t="str">
-        <f t="shared" si="2"/>
-        <v>mol per …</v>
-      </c>
-      <c r="E156" s="29"/>
-    </row>
-    <row r="157" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>mol per …</v>
+      </c>
+      <c r="E156" s="28" t="str">
+        <f t="shared" si="6"/>
+        <v>Chang et al. 2011</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" ht="16">
       <c r="A157" s="10" t="s">
         <v>334</v>
       </c>
@@ -5643,12 +6074,15 @@
         <v>1.2533522949881263E-3</v>
       </c>
       <c r="D157" s="31" t="str">
-        <f t="shared" si="2"/>
-        <v>mol per …</v>
-      </c>
-      <c r="E157" s="29"/>
-    </row>
-    <row r="158" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>mol per …</v>
+      </c>
+      <c r="E157" s="28" t="str">
+        <f t="shared" si="6"/>
+        <v>Chang et al. 2011</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" ht="16">
       <c r="A158" s="10" t="s">
         <v>336</v>
       </c>
@@ -5659,12 +6093,15 @@
         <v>1.256224771004278E-3</v>
       </c>
       <c r="D158" s="31" t="str">
-        <f t="shared" si="2"/>
-        <v>mol per …</v>
-      </c>
-      <c r="E158" s="29"/>
-    </row>
-    <row r="159" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>mol per …</v>
+      </c>
+      <c r="E158" s="28" t="str">
+        <f t="shared" si="6"/>
+        <v>Chang et al. 2011</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" ht="16">
       <c r="A159" s="10" t="s">
         <v>338</v>
       </c>
@@ -5675,12 +6112,15 @@
         <v>1.256224771004278E-3</v>
       </c>
       <c r="D159" s="31" t="str">
-        <f t="shared" si="2"/>
-        <v>mol per …</v>
-      </c>
-      <c r="E159" s="29"/>
-    </row>
-    <row r="160" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>mol per …</v>
+      </c>
+      <c r="E159" s="28" t="str">
+        <f t="shared" si="6"/>
+        <v>Chang et al. 2011</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" ht="16">
       <c r="A160" s="10" t="s">
         <v>340</v>
       </c>
@@ -5691,12 +6131,15 @@
         <v>1.256224771004278E-3</v>
       </c>
       <c r="D160" s="31" t="str">
-        <f t="shared" si="2"/>
-        <v>mol per …</v>
-      </c>
-      <c r="E160" s="29"/>
-    </row>
-    <row r="161" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>mol per …</v>
+      </c>
+      <c r="E160" s="28" t="str">
+        <f t="shared" si="6"/>
+        <v>Chang et al. 2011</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" ht="16">
       <c r="A161" s="10" t="s">
         <v>342</v>
       </c>
@@ -5707,12 +6150,15 @@
         <v>1.256224771004278E-3</v>
       </c>
       <c r="D161" s="31" t="str">
-        <f t="shared" si="2"/>
-        <v>mol per …</v>
-      </c>
-      <c r="E161" s="29"/>
-    </row>
-    <row r="162" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>mol per …</v>
+      </c>
+      <c r="E161" s="28" t="str">
+        <f t="shared" si="6"/>
+        <v>Chang et al. 2011</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" ht="16">
       <c r="A162" s="10" t="s">
         <v>344</v>
       </c>
@@ -5723,12 +6169,15 @@
         <v>1.2975027256289457E-3</v>
       </c>
       <c r="D162" s="31" t="str">
-        <f t="shared" si="2"/>
-        <v>mol per …</v>
-      </c>
-      <c r="E162" s="29"/>
-    </row>
-    <row r="163" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>mol per …</v>
+      </c>
+      <c r="E162" s="28" t="str">
+        <f t="shared" si="6"/>
+        <v>Chang et al. 2011</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" ht="16">
       <c r="A163" s="10" t="s">
         <v>346</v>
       </c>
@@ -5739,12 +6188,15 @@
         <v>1.2975027256289457E-3</v>
       </c>
       <c r="D163" s="31" t="str">
-        <f t="shared" si="2"/>
-        <v>mol per …</v>
-      </c>
-      <c r="E163" s="29"/>
-    </row>
-    <row r="164" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>mol per …</v>
+      </c>
+      <c r="E163" s="28" t="str">
+        <f t="shared" si="6"/>
+        <v>Chang et al. 2011</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" ht="16">
       <c r="A164" s="10" t="s">
         <v>348</v>
       </c>
@@ -5755,12 +6207,15 @@
         <v>1.2562105183973912E-3</v>
       </c>
       <c r="D164" s="31" t="str">
-        <f t="shared" si="2"/>
-        <v>mol per …</v>
-      </c>
-      <c r="E164" s="29"/>
-    </row>
-    <row r="165" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>mol per …</v>
+      </c>
+      <c r="E164" s="28" t="str">
+        <f t="shared" si="6"/>
+        <v>Chang et al. 2011</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" ht="16">
       <c r="A165" s="10" t="s">
         <v>350</v>
       </c>
@@ -5771,12 +6226,15 @@
         <v>1.2590961255833208E-3</v>
       </c>
       <c r="D165" s="31" t="str">
-        <f t="shared" si="2"/>
-        <v>mol per …</v>
-      </c>
-      <c r="E165" s="29"/>
-    </row>
-    <row r="166" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>mol per …</v>
+      </c>
+      <c r="E165" s="28" t="str">
+        <f t="shared" si="6"/>
+        <v>Chang et al. 2011</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" ht="16">
       <c r="A166" s="10" t="s">
         <v>352</v>
       </c>
@@ -5787,12 +6245,15 @@
         <v>1.2590961255833208E-3</v>
       </c>
       <c r="D166" s="31" t="str">
-        <f t="shared" si="2"/>
-        <v>mol per …</v>
-      </c>
-      <c r="E166" s="29"/>
-    </row>
-    <row r="167" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>mol per …</v>
+      </c>
+      <c r="E166" s="28" t="str">
+        <f t="shared" si="6"/>
+        <v>Chang et al. 2011</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" ht="16">
       <c r="A167" s="10" t="s">
         <v>354</v>
       </c>
@@ -5803,12 +6264,15 @@
         <v>1.2590961255833208E-3</v>
       </c>
       <c r="D167" s="31" t="str">
-        <f t="shared" si="2"/>
-        <v>mol per …</v>
-      </c>
-      <c r="E167" s="29"/>
-    </row>
-    <row r="168" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>mol per …</v>
+      </c>
+      <c r="E167" s="28" t="str">
+        <f t="shared" si="6"/>
+        <v>Chang et al. 2011</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" ht="16">
       <c r="A168" s="10" t="s">
         <v>356</v>
       </c>
@@ -5819,12 +6283,15 @@
         <v>1.2590961255833208E-3</v>
       </c>
       <c r="D168" s="31" t="str">
-        <f t="shared" si="2"/>
-        <v>mol per …</v>
-      </c>
-      <c r="E168" s="29"/>
-    </row>
-    <row r="169" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>mol per …</v>
+      </c>
+      <c r="E168" s="28" t="str">
+        <f t="shared" si="6"/>
+        <v>Chang et al. 2011</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" ht="16">
       <c r="A169" s="10" t="s">
         <v>358</v>
       </c>
@@ -5835,12 +6302,15 @@
         <v>3.7062152586879497E-2</v>
       </c>
       <c r="D169" s="31" t="str">
-        <f t="shared" si="2"/>
-        <v>mol per …</v>
-      </c>
-      <c r="E169" s="29"/>
-    </row>
-    <row r="170" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>mol per …</v>
+      </c>
+      <c r="E169" s="28" t="str">
+        <f t="shared" si="6"/>
+        <v>Chang et al. 2011</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" ht="16">
       <c r="A170" s="10" t="s">
         <v>360</v>
       </c>
@@ -5851,12 +6321,15 @@
         <v>3.0046019906753842E-2</v>
       </c>
       <c r="D170" s="31" t="str">
-        <f t="shared" si="2"/>
-        <v>mol per …</v>
-      </c>
-      <c r="E170" s="29"/>
-    </row>
-    <row r="171" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>mol per …</v>
+      </c>
+      <c r="E170" s="28" t="str">
+        <f t="shared" si="6"/>
+        <v>Chang et al. 2011</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" ht="16">
       <c r="A171" s="10" t="s">
         <v>362</v>
       </c>
@@ -5867,12 +6340,15 @@
         <v>2.5263492722882658E-2</v>
       </c>
       <c r="D171" s="31" t="str">
-        <f t="shared" si="2"/>
-        <v>mol per …</v>
-      </c>
-      <c r="E171" s="29"/>
-    </row>
-    <row r="172" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>mol per …</v>
+      </c>
+      <c r="E171" s="28" t="str">
+        <f t="shared" si="6"/>
+        <v>Chang et al. 2011</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" ht="16">
       <c r="A172" s="10" t="s">
         <v>364</v>
       </c>
@@ -5883,12 +6359,15 @@
         <v>1.2083522094794524E-2</v>
       </c>
       <c r="D172" s="31" t="str">
-        <f t="shared" si="2"/>
-        <v>mol per …</v>
-      </c>
-      <c r="E172" s="29"/>
-    </row>
-    <row r="173" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>mol per …</v>
+      </c>
+      <c r="E172" s="28" t="str">
+        <f t="shared" si="6"/>
+        <v>Chang et al. 2011</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" ht="16">
       <c r="A173" s="10" t="s">
         <v>366</v>
       </c>
@@ -5899,12 +6378,15 @@
         <v>1.008363478732998E-2</v>
       </c>
       <c r="D173" s="31" t="str">
-        <f t="shared" si="2"/>
-        <v>mol per …</v>
-      </c>
-      <c r="E173" s="29"/>
-    </row>
-    <row r="174" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>mol per …</v>
+      </c>
+      <c r="E173" s="28" t="str">
+        <f t="shared" si="6"/>
+        <v>Chang et al. 2011</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" ht="16">
       <c r="A174" s="10" t="s">
         <v>368</v>
       </c>
@@ -5915,12 +6397,15 @@
         <v>1.6546892901669757E-2</v>
       </c>
       <c r="D174" s="31" t="str">
-        <f t="shared" si="2"/>
-        <v>mol per …</v>
-      </c>
-      <c r="E174" s="29"/>
-    </row>
-    <row r="175" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>mol per …</v>
+      </c>
+      <c r="E174" s="28" t="str">
+        <f t="shared" si="6"/>
+        <v>Chang et al. 2011</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" ht="16">
       <c r="A175" s="10" t="s">
         <v>370</v>
       </c>
@@ -5931,12 +6416,15 @@
         <v>1.0378367394767038E-6</v>
       </c>
       <c r="D175" s="31" t="str">
-        <f t="shared" si="2"/>
-        <v>mol per …</v>
-      </c>
-      <c r="E175" s="29"/>
-    </row>
-    <row r="176" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>mol per …</v>
+      </c>
+      <c r="E175" s="28" t="str">
+        <f t="shared" si="6"/>
+        <v>Chang et al. 2011</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" ht="16">
       <c r="A176" s="10" t="s">
         <v>372</v>
       </c>
@@ -5947,12 +6435,15 @@
         <v>5.0418173936649904E-4</v>
       </c>
       <c r="D176" s="31" t="str">
-        <f t="shared" si="2"/>
-        <v>mol per …</v>
-      </c>
-      <c r="E176" s="29"/>
-    </row>
-    <row r="177" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>mol per …</v>
+      </c>
+      <c r="E176" s="28" t="str">
+        <f t="shared" si="6"/>
+        <v>Chang et al. 2011</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" ht="16">
       <c r="A177" s="10" t="s">
         <v>374</v>
       </c>
@@ -5963,12 +6454,15 @@
         <v>1.0083634787329981E-4</v>
       </c>
       <c r="D177" s="31" t="str">
-        <f t="shared" si="2"/>
-        <v>mol per …</v>
-      </c>
-      <c r="E177" s="29"/>
-    </row>
-    <row r="178" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>mol per …</v>
+      </c>
+      <c r="E177" s="28" t="str">
+        <f t="shared" si="6"/>
+        <v>Chang et al. 2011</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" ht="16">
       <c r="A178" s="10" t="s">
         <v>376</v>
       </c>
@@ -5979,12 +6473,15 @@
         <v>1.4117088702261973E-3</v>
       </c>
       <c r="D178" s="31" t="str">
-        <f t="shared" si="2"/>
-        <v>mol per …</v>
-      </c>
-      <c r="E178" s="29"/>
-    </row>
-    <row r="179" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>mol per …</v>
+      </c>
+      <c r="E178" s="28" t="str">
+        <f t="shared" si="6"/>
+        <v>Chang et al. 2011</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" ht="16">
       <c r="A179" s="10" t="s">
         <v>378</v>
       </c>
@@ -5995,12 +6492,15 @@
         <v>6.5543626117644876E-4</v>
       </c>
       <c r="D179" s="31" t="str">
-        <f t="shared" si="2"/>
-        <v>mol per …</v>
-      </c>
-      <c r="E179" s="29"/>
-    </row>
-    <row r="180" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>mol per …</v>
+      </c>
+      <c r="E179" s="28" t="str">
+        <f t="shared" si="6"/>
+        <v>Chang et al. 2011</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" ht="16">
       <c r="A180" s="10" t="s">
         <v>380</v>
       </c>
@@ -6011,12 +6511,15 @@
         <v>1.2604543484162475E-3</v>
       </c>
       <c r="D180" s="31" t="str">
-        <f t="shared" si="2"/>
-        <v>mol per …</v>
-      </c>
-      <c r="E180" s="29"/>
-    </row>
-    <row r="181" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>mol per …</v>
+      </c>
+      <c r="E180" s="28" t="str">
+        <f t="shared" si="6"/>
+        <v>Chang et al. 2011</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" ht="16">
       <c r="A181" s="10" t="s">
         <v>382</v>
       </c>
@@ -6027,12 +6530,15 @@
         <v>5.5459991330314895E-4</v>
       </c>
       <c r="D181" s="31" t="str">
-        <f t="shared" si="2"/>
-        <v>mol per …</v>
-      </c>
-      <c r="E181" s="29"/>
-    </row>
-    <row r="182" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>mol per …</v>
+      </c>
+      <c r="E181" s="28" t="str">
+        <f t="shared" si="6"/>
+        <v>Chang et al. 2011</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" ht="16">
       <c r="A182" s="10" t="s">
         <v>384</v>
       </c>
@@ -6043,12 +6549,15 @@
         <v>3.5292721755654933E-4</v>
       </c>
       <c r="D182" s="31" t="str">
-        <f t="shared" si="2"/>
-        <v>mol per …</v>
-      </c>
-      <c r="E182" s="29"/>
-    </row>
-    <row r="183" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>mol per …</v>
+      </c>
+      <c r="E182" s="28" t="str">
+        <f t="shared" si="6"/>
+        <v>Chang et al. 2011</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" ht="16">
       <c r="A183" s="10" t="s">
         <v>386</v>
       </c>
@@ -6059,182 +6568,186 @@
         <v>3.0250904361989937E-4</v>
       </c>
       <c r="D183" s="31" t="str">
-        <f t="shared" ref="D183:D200" si="3">$D$12</f>
-        <v>mol per …</v>
-      </c>
-      <c r="E183" s="29"/>
-    </row>
-    <row r="184" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+        <f t="shared" ref="D183:D200" si="7">$D$12</f>
+        <v>mol per …</v>
+      </c>
+      <c r="E183" s="28" t="str">
+        <f t="shared" si="6"/>
+        <v>Chang et al. 2011</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" ht="16">
       <c r="A184" s="10"/>
       <c r="B184" s="105"/>
       <c r="C184" s="119"/>
       <c r="D184" s="31" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>mol per …</v>
       </c>
       <c r="E184" s="29"/>
     </row>
-    <row r="185" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:5" ht="16">
       <c r="A185" s="10"/>
       <c r="B185" s="105"/>
       <c r="C185" s="119"/>
       <c r="D185" s="31" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>mol per …</v>
       </c>
       <c r="E185" s="29"/>
     </row>
-    <row r="186" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:5" ht="16">
       <c r="A186" s="10"/>
       <c r="B186" s="105"/>
       <c r="C186" s="119"/>
       <c r="D186" s="31" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>mol per …</v>
       </c>
       <c r="E186" s="29"/>
     </row>
-    <row r="187" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:5" ht="16">
       <c r="A187" s="10"/>
       <c r="B187" s="105"/>
       <c r="C187" s="119"/>
       <c r="D187" s="31" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>mol per …</v>
       </c>
       <c r="E187" s="29"/>
     </row>
-    <row r="188" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:5" ht="16">
       <c r="A188" s="10"/>
       <c r="B188" s="105"/>
       <c r="C188" s="119"/>
       <c r="D188" s="31" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>mol per …</v>
       </c>
       <c r="E188" s="29"/>
     </row>
-    <row r="189" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:5" ht="16">
       <c r="A189" s="10"/>
       <c r="B189" s="105"/>
       <c r="C189" s="119"/>
       <c r="D189" s="31" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>mol per …</v>
       </c>
       <c r="E189" s="29"/>
     </row>
-    <row r="190" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:5" ht="16">
       <c r="A190" s="10"/>
       <c r="B190" s="105"/>
       <c r="C190" s="119"/>
       <c r="D190" s="31" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>mol per …</v>
       </c>
       <c r="E190" s="29"/>
     </row>
-    <row r="191" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:5" ht="16">
       <c r="A191" s="10"/>
       <c r="B191" s="105"/>
       <c r="C191" s="119"/>
       <c r="D191" s="31" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>mol per …</v>
       </c>
       <c r="E191" s="29"/>
     </row>
-    <row r="192" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:5" ht="16">
       <c r="A192" s="10"/>
       <c r="B192" s="105"/>
       <c r="C192" s="119"/>
       <c r="D192" s="31" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>mol per …</v>
       </c>
       <c r="E192" s="29"/>
     </row>
-    <row r="193" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:5" ht="16">
       <c r="A193" s="10"/>
       <c r="B193" s="105"/>
       <c r="C193" s="119"/>
       <c r="D193" s="31" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>mol per …</v>
       </c>
       <c r="E193" s="29"/>
     </row>
-    <row r="194" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:5" ht="16">
       <c r="A194" s="10"/>
       <c r="B194" s="105"/>
       <c r="C194" s="119"/>
       <c r="D194" s="31" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>mol per …</v>
       </c>
       <c r="E194" s="29"/>
     </row>
-    <row r="195" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:5" ht="16">
       <c r="A195" s="10"/>
       <c r="B195" s="105"/>
       <c r="C195" s="119"/>
       <c r="D195" s="31" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>mol per …</v>
       </c>
       <c r="E195" s="29"/>
     </row>
-    <row r="196" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:5" ht="16">
       <c r="A196" s="10"/>
       <c r="B196" s="105"/>
       <c r="C196" s="119"/>
       <c r="D196" s="31" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>mol per …</v>
       </c>
       <c r="E196" s="29"/>
     </row>
-    <row r="197" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:5" ht="16">
       <c r="A197" s="10"/>
       <c r="B197" s="105"/>
       <c r="C197" s="119"/>
       <c r="D197" s="31" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>mol per …</v>
       </c>
       <c r="E197" s="29"/>
     </row>
-    <row r="198" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:5" ht="16">
       <c r="A198" s="10"/>
       <c r="B198" s="105"/>
       <c r="C198" s="119"/>
       <c r="D198" s="31" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>mol per …</v>
       </c>
       <c r="E198" s="29"/>
     </row>
-    <row r="199" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:5" ht="16">
       <c r="A199" s="10"/>
       <c r="B199" s="105"/>
       <c r="C199" s="119"/>
       <c r="D199" s="31" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>mol per …</v>
       </c>
       <c r="E199" s="29"/>
     </row>
-    <row r="200" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:5" ht="17" thickBot="1">
       <c r="A200" s="19"/>
       <c r="B200" s="106"/>
       <c r="C200" s="120"/>
       <c r="D200" s="32" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>mol per …</v>
       </c>
       <c r="E200" s="30"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="H10:L10"/>
   </mergeCells>
@@ -6262,12 +6775,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="bf468429-cf6f-4b00-9f4c-04b1e818073d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="d642d721-13e3-4c24-9e58-fcd4f88b1b21" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6492,20 +7007,21 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="bf468429-cf6f-4b00-9f4c-04b1e818073d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="d642d721-13e3-4c24-9e58-fcd4f88b1b21" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CE861155-AD29-4B55-A3EC-AEDD52179DA0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{14867879-D7D7-438C-AE28-B5B27DC8C7EA}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="bf468429-cf6f-4b00-9f4c-04b1e818073d"/>
+    <ds:schemaRef ds:uri="d642d721-13e3-4c24-9e58-fcd4f88b1b21"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -6530,12 +7046,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{14867879-D7D7-438C-AE28-B5B27DC8C7EA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CE861155-AD29-4B55-A3EC-AEDD52179DA0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="bf468429-cf6f-4b00-9f4c-04b1e818073d"/>
-    <ds:schemaRef ds:uri="d642d721-13e3-4c24-9e58-fcd4f88b1b21"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>